--- a/input/emissions-inventories/Canada/ape_results_e_NMVOC_2014.xlsx
+++ b/input/emissions-inventories/Canada/ape_results_e_NMVOC_2014.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huong Nguyen\Desktop\CEDS\input\emissions-inventories\Canada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\CEDS\input\emissions-inventories\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB421AB0-D80B-4C67-B596-E604FE025363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14145" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,19 +891,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,11 +1224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,18 +1238,18 @@
     <col min="3" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1272,1543 +1273,1849 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H8" s="4">
         <v>2014</v>
       </c>
-      <c r="C8" s="4">
+      <c r="I8" s="4">
         <v>2013</v>
       </c>
-      <c r="D8" s="4">
+      <c r="J8" s="4">
         <v>2012</v>
       </c>
-      <c r="E8" s="4">
+      <c r="K8" s="4">
         <v>2011</v>
       </c>
-      <c r="F8" s="4">
+      <c r="L8" s="4">
         <v>2010</v>
       </c>
-      <c r="G8" s="4">
+      <c r="M8" s="4">
         <v>2009</v>
       </c>
-      <c r="H8" s="4">
+      <c r="N8" s="4">
         <v>2008</v>
       </c>
-      <c r="I8" s="4">
+      <c r="O8" s="4">
         <v>2007</v>
       </c>
-      <c r="J8" s="4">
+      <c r="P8" s="4">
         <v>2006</v>
       </c>
-      <c r="K8" s="4">
+      <c r="Q8" s="4">
         <v>2005</v>
       </c>
-      <c r="L8" s="4">
+      <c r="R8" s="4">
         <v>2004</v>
       </c>
-      <c r="M8" s="4">
+      <c r="S8" s="4">
         <v>2003</v>
       </c>
-      <c r="N8" s="4">
+      <c r="T8" s="4">
         <v>2002</v>
       </c>
-      <c r="O8" s="4">
+      <c r="U8" s="4">
         <v>2001</v>
       </c>
-      <c r="P8" s="4">
+      <c r="V8" s="4">
         <v>2000</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="W8" s="4">
         <v>1999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="X8" s="4">
         <v>1998</v>
       </c>
-      <c r="S8" s="4">
+      <c r="Y8" s="4">
         <v>1997</v>
       </c>
-      <c r="T8" s="4">
+      <c r="Z8" s="4">
         <v>1996</v>
       </c>
-      <c r="U8" s="4">
+      <c r="AA8" s="4">
         <v>1995</v>
       </c>
-      <c r="V8" s="4">
+      <c r="AB8" s="4">
         <v>1994</v>
       </c>
-      <c r="W8" s="4">
+      <c r="AC8" s="4">
         <v>1993</v>
       </c>
-      <c r="X8" s="4">
+      <c r="AD8" s="4">
         <v>1992</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AE8" s="4">
         <v>1991</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AF8" s="4">
         <v>1990</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
+        <v>1974</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1851</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1657</v>
+      </c>
+      <c r="E10" s="5">
+        <v>954</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9498</v>
+      </c>
+      <c r="G10" s="5">
+        <v>931</v>
+      </c>
+      <c r="H10" s="6">
         <v>758</v>
       </c>
-      <c r="C10" s="6">
+      <c r="I10" s="6">
         <v>1440</v>
       </c>
-      <c r="D10" s="6">
+      <c r="J10" s="6">
         <v>1324</v>
       </c>
-      <c r="E10" s="6">
+      <c r="K10" s="6">
         <v>1469</v>
       </c>
-      <c r="F10" s="6">
+      <c r="L10" s="6">
         <v>1416</v>
       </c>
-      <c r="G10" s="6">
+      <c r="M10" s="6">
         <v>1455</v>
       </c>
-      <c r="H10" s="6">
+      <c r="N10" s="6">
         <v>1579</v>
       </c>
-      <c r="I10" s="6">
+      <c r="O10" s="6">
         <v>1219</v>
       </c>
-      <c r="J10" s="6">
+      <c r="P10" s="6">
         <v>1230</v>
       </c>
-      <c r="K10" s="6">
+      <c r="Q10" s="6">
         <v>1190</v>
       </c>
-      <c r="L10" s="6">
+      <c r="R10" s="6">
         <v>766</v>
       </c>
-      <c r="M10" s="6">
+      <c r="S10" s="6">
         <v>862</v>
       </c>
-      <c r="N10" s="6">
+      <c r="T10" s="6">
         <v>943</v>
       </c>
-      <c r="O10" s="6">
+      <c r="U10" s="6">
         <v>1248</v>
       </c>
-      <c r="P10" s="6">
+      <c r="V10" s="6">
         <v>1113</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="W10" s="6">
         <v>1169</v>
       </c>
-      <c r="R10" s="6">
+      <c r="X10" s="6">
         <v>1133</v>
       </c>
-      <c r="S10" s="6">
+      <c r="Y10" s="6">
         <v>1096</v>
       </c>
-      <c r="T10" s="6">
+      <c r="Z10" s="6">
         <v>1025</v>
       </c>
-      <c r="U10" s="6">
+      <c r="AA10" s="6">
         <v>967</v>
       </c>
-      <c r="V10" s="6">
+      <c r="AB10" s="6">
         <v>1124</v>
       </c>
-      <c r="W10" s="6">
+      <c r="AC10" s="6">
         <v>1052</v>
       </c>
-      <c r="X10" s="6">
+      <c r="AD10" s="6">
         <v>980</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="AE10" s="6">
         <v>665</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AF10" s="6">
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
+        <v>5753</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6153</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6351</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6420</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6260</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6615</v>
+      </c>
+      <c r="H11" s="6">
         <v>5618</v>
       </c>
-      <c r="C11" s="6">
+      <c r="I11" s="6">
         <v>5618</v>
       </c>
-      <c r="D11" s="6">
+      <c r="J11" s="6">
         <v>5661</v>
       </c>
-      <c r="E11" s="6">
+      <c r="K11" s="6">
         <v>6724</v>
       </c>
-      <c r="F11" s="6">
+      <c r="L11" s="6">
         <v>6372</v>
       </c>
-      <c r="G11" s="6">
+      <c r="M11" s="6">
         <v>4875</v>
       </c>
-      <c r="H11" s="6">
+      <c r="N11" s="6">
         <v>4516</v>
       </c>
-      <c r="I11" s="6">
+      <c r="O11" s="6">
         <v>4685</v>
       </c>
-      <c r="J11" s="6">
+      <c r="P11" s="6">
         <v>6281</v>
       </c>
-      <c r="K11" s="6">
+      <c r="Q11" s="6">
         <v>6327</v>
       </c>
-      <c r="L11" s="6">
+      <c r="R11" s="6">
         <v>6397</v>
       </c>
-      <c r="M11" s="6">
+      <c r="S11" s="6">
         <v>6962</v>
       </c>
-      <c r="N11" s="6">
+      <c r="T11" s="6">
         <v>8344</v>
       </c>
-      <c r="O11" s="6">
+      <c r="U11" s="6">
         <v>8983</v>
       </c>
-      <c r="P11" s="6">
+      <c r="V11" s="6">
         <v>9889</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="W11" s="6">
         <v>7329</v>
       </c>
-      <c r="R11" s="6">
+      <c r="X11" s="6">
         <v>7727</v>
       </c>
-      <c r="S11" s="6">
+      <c r="Y11" s="6">
         <v>7125</v>
       </c>
-      <c r="T11" s="6">
+      <c r="Z11" s="6">
         <v>5622</v>
       </c>
-      <c r="U11" s="6">
+      <c r="AA11" s="6">
         <v>5174</v>
       </c>
-      <c r="V11" s="6">
+      <c r="AB11" s="6">
         <v>5408</v>
       </c>
-      <c r="W11" s="6">
+      <c r="AC11" s="6">
         <v>5925</v>
       </c>
-      <c r="X11" s="6">
+      <c r="AD11" s="6">
         <v>6315</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="AE11" s="6">
         <v>7017</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AF11" s="6">
         <v>6661</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
+        <v>585</v>
+      </c>
+      <c r="C12" s="5">
+        <v>761</v>
+      </c>
+      <c r="D12" s="5">
+        <v>764</v>
+      </c>
+      <c r="E12" s="5">
+        <v>689</v>
+      </c>
+      <c r="F12" s="5">
+        <v>436</v>
+      </c>
+      <c r="G12" s="5">
+        <v>403</v>
+      </c>
+      <c r="H12" s="6">
         <v>463</v>
       </c>
-      <c r="C12" s="6">
+      <c r="I12" s="6">
         <v>436</v>
       </c>
-      <c r="D12" s="6">
+      <c r="J12" s="6">
         <v>420</v>
       </c>
-      <c r="E12" s="6">
+      <c r="K12" s="6">
         <v>372</v>
       </c>
-      <c r="F12" s="6">
+      <c r="L12" s="6">
         <v>330</v>
       </c>
-      <c r="G12" s="6">
+      <c r="M12" s="6">
         <v>263</v>
       </c>
-      <c r="H12" s="6">
+      <c r="N12" s="6">
         <v>302</v>
       </c>
-      <c r="I12" s="6">
+      <c r="O12" s="6">
         <v>397</v>
       </c>
-      <c r="J12" s="6">
+      <c r="P12" s="6">
         <v>928</v>
       </c>
-      <c r="K12" s="6">
+      <c r="Q12" s="6">
         <v>1211</v>
       </c>
-      <c r="L12" s="6">
+      <c r="R12" s="6">
         <v>722</v>
       </c>
-      <c r="M12" s="6">
+      <c r="S12" s="6">
         <v>703</v>
       </c>
-      <c r="N12" s="6">
+      <c r="T12" s="6">
         <v>756</v>
       </c>
-      <c r="O12" s="6">
+      <c r="U12" s="6">
         <v>630</v>
       </c>
-      <c r="P12" s="6">
+      <c r="V12" s="6">
         <v>773</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="W12" s="6">
         <v>908</v>
       </c>
-      <c r="R12" s="6">
+      <c r="X12" s="6">
         <v>902</v>
       </c>
-      <c r="S12" s="6">
+      <c r="Y12" s="6">
         <v>933</v>
       </c>
-      <c r="T12" s="6">
+      <c r="Z12" s="6">
         <v>915</v>
       </c>
-      <c r="U12" s="6">
+      <c r="AA12" s="6">
         <v>945</v>
       </c>
-      <c r="V12" s="6">
+      <c r="AB12" s="6">
         <v>912</v>
       </c>
-      <c r="W12" s="6">
+      <c r="AC12" s="6">
         <v>856</v>
       </c>
-      <c r="X12" s="6">
+      <c r="AD12" s="6">
         <v>798</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="AE12" s="6">
         <v>757</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AF12" s="6">
         <v>841</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
+        <v>15641</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13847</v>
+      </c>
+      <c r="D13" s="5">
+        <v>15657</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9216</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9899</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10285</v>
+      </c>
+      <c r="H13" s="6">
         <v>12938</v>
       </c>
-      <c r="C13" s="6">
+      <c r="I13" s="6">
         <v>14183</v>
       </c>
-      <c r="D13" s="6">
+      <c r="J13" s="6">
         <v>11013</v>
       </c>
-      <c r="E13" s="6">
+      <c r="K13" s="6">
         <v>12513</v>
       </c>
-      <c r="F13" s="6">
+      <c r="L13" s="6">
         <v>12660</v>
       </c>
-      <c r="G13" s="6">
+      <c r="M13" s="6">
         <v>11640</v>
       </c>
-      <c r="H13" s="6">
+      <c r="N13" s="6">
         <v>13554</v>
       </c>
-      <c r="I13" s="6">
+      <c r="O13" s="6">
         <v>13228</v>
       </c>
-      <c r="J13" s="6">
+      <c r="P13" s="6">
         <v>13312</v>
       </c>
-      <c r="K13" s="6">
+      <c r="Q13" s="6">
         <v>24691</v>
       </c>
-      <c r="L13" s="6">
+      <c r="R13" s="6">
         <v>24834</v>
       </c>
-      <c r="M13" s="6">
+      <c r="S13" s="6">
         <v>30026</v>
       </c>
-      <c r="N13" s="6">
+      <c r="T13" s="6">
         <v>32083</v>
       </c>
-      <c r="O13" s="6">
+      <c r="U13" s="6">
         <v>33808</v>
       </c>
-      <c r="P13" s="6">
+      <c r="V13" s="6">
         <v>35949</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="W13" s="6">
         <v>36563</v>
       </c>
-      <c r="R13" s="6">
+      <c r="X13" s="6">
         <v>37734</v>
       </c>
-      <c r="S13" s="6">
+      <c r="Y13" s="6">
         <v>39357</v>
       </c>
-      <c r="T13" s="6">
+      <c r="Z13" s="6">
         <v>40087</v>
       </c>
-      <c r="U13" s="6">
+      <c r="AA13" s="6">
         <v>39317</v>
       </c>
-      <c r="V13" s="6">
+      <c r="AB13" s="6">
         <v>46528</v>
       </c>
-      <c r="W13" s="6">
+      <c r="AC13" s="6">
         <v>46648</v>
       </c>
-      <c r="X13" s="6">
+      <c r="AD13" s="6">
         <v>45308</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="AE13" s="6">
         <v>46629</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AF13" s="6">
         <v>46799</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
+        <v>85</v>
+      </c>
+      <c r="C14" s="5">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5">
+        <v>107</v>
+      </c>
+      <c r="E14" s="5">
+        <v>72</v>
+      </c>
+      <c r="F14" s="5">
+        <v>136</v>
+      </c>
+      <c r="G14" s="5">
+        <v>107</v>
+      </c>
+      <c r="H14" s="6">
         <v>124</v>
       </c>
-      <c r="C14" s="6">
+      <c r="I14" s="6">
         <v>99</v>
       </c>
-      <c r="D14" s="6">
+      <c r="J14" s="6">
         <v>72</v>
       </c>
-      <c r="E14" s="6">
+      <c r="K14" s="6">
         <v>95</v>
       </c>
-      <c r="F14" s="6">
+      <c r="L14" s="6">
         <v>115</v>
       </c>
-      <c r="G14" s="6">
+      <c r="M14" s="6">
         <v>194</v>
       </c>
-      <c r="H14" s="6">
+      <c r="N14" s="6">
         <v>225</v>
       </c>
-      <c r="I14" s="6">
+      <c r="O14" s="6">
         <v>270</v>
       </c>
-      <c r="J14" s="6">
+      <c r="P14" s="6">
         <v>281</v>
       </c>
-      <c r="K14" s="6">
+      <c r="Q14" s="6">
         <v>279</v>
       </c>
-      <c r="L14" s="6">
+      <c r="R14" s="6">
         <v>299</v>
       </c>
-      <c r="M14" s="6">
+      <c r="S14" s="6">
         <v>553</v>
       </c>
-      <c r="N14" s="6">
+      <c r="T14" s="6">
         <v>432</v>
       </c>
-      <c r="O14" s="6">
+      <c r="U14" s="6">
         <v>371</v>
       </c>
-      <c r="P14" s="6">
+      <c r="V14" s="6">
         <v>330</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="W14" s="6">
         <v>386</v>
       </c>
-      <c r="R14" s="6">
+      <c r="X14" s="6">
         <v>336</v>
       </c>
-      <c r="S14" s="6">
+      <c r="Y14" s="6">
         <v>330</v>
       </c>
-      <c r="T14" s="6">
+      <c r="Z14" s="6">
         <v>348</v>
       </c>
-      <c r="U14" s="6">
+      <c r="AA14" s="6">
         <v>234</v>
       </c>
-      <c r="V14" s="6">
+      <c r="AB14" s="6">
         <v>373</v>
       </c>
-      <c r="W14" s="6">
+      <c r="AC14" s="6">
         <v>365</v>
       </c>
-      <c r="X14" s="6">
+      <c r="AD14" s="6">
         <v>182</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="AE14" s="6">
         <v>200</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AF14" s="6">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
+        <v>611</v>
+      </c>
+      <c r="C15" s="5">
+        <v>259</v>
+      </c>
+      <c r="D15" s="5">
+        <v>303</v>
+      </c>
+      <c r="E15" s="5">
+        <v>255</v>
+      </c>
+      <c r="F15" s="5">
+        <v>303</v>
+      </c>
+      <c r="G15" s="5">
+        <v>326</v>
+      </c>
+      <c r="H15" s="6">
         <v>366</v>
       </c>
-      <c r="C15" s="6">
+      <c r="I15" s="6">
         <v>366</v>
       </c>
-      <c r="D15" s="6">
+      <c r="J15" s="6">
         <v>388</v>
       </c>
-      <c r="E15" s="6">
+      <c r="K15" s="6">
         <v>427</v>
       </c>
-      <c r="F15" s="6">
+      <c r="L15" s="6">
         <v>398</v>
       </c>
-      <c r="G15" s="6">
+      <c r="M15" s="6">
         <v>398</v>
       </c>
-      <c r="H15" s="6">
+      <c r="N15" s="6">
         <v>579</v>
       </c>
-      <c r="I15" s="6">
+      <c r="O15" s="6">
         <v>390</v>
       </c>
-      <c r="J15" s="6">
+      <c r="P15" s="6">
         <v>594</v>
       </c>
-      <c r="K15" s="6">
+      <c r="Q15" s="6">
         <v>916</v>
       </c>
-      <c r="L15" s="6">
+      <c r="R15" s="6">
         <v>1019</v>
       </c>
-      <c r="M15" s="6">
+      <c r="S15" s="6">
         <v>1084</v>
       </c>
-      <c r="N15" s="6">
+      <c r="T15" s="6">
         <v>904</v>
       </c>
-      <c r="O15" s="6">
+      <c r="U15" s="6">
         <v>977</v>
       </c>
-      <c r="P15" s="6">
+      <c r="V15" s="6">
         <v>1144</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="W15" s="6">
         <v>1142</v>
       </c>
-      <c r="R15" s="6">
+      <c r="X15" s="6">
         <v>1056</v>
       </c>
-      <c r="S15" s="6">
+      <c r="Y15" s="6">
         <v>1047</v>
       </c>
-      <c r="T15" s="6">
+      <c r="Z15" s="6">
         <v>1857</v>
       </c>
-      <c r="U15" s="6">
+      <c r="AA15" s="6">
         <v>1669</v>
       </c>
-      <c r="V15" s="6">
+      <c r="AB15" s="6">
         <v>2621</v>
       </c>
-      <c r="W15" s="6">
+      <c r="AC15" s="6">
         <v>2524</v>
       </c>
-      <c r="X15" s="6">
+      <c r="AD15" s="6">
         <v>1652</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="AE15" s="6">
         <v>1687</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AF15" s="6">
         <v>1720</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
+        <v>3498</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3197</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2370</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2244</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2506</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2984</v>
+      </c>
+      <c r="H16" s="6">
         <v>2992</v>
       </c>
-      <c r="C16" s="6">
+      <c r="I16" s="6">
         <v>2535</v>
       </c>
-      <c r="D16" s="6">
+      <c r="J16" s="6">
         <v>2270</v>
       </c>
-      <c r="E16" s="6">
+      <c r="K16" s="6">
         <v>2650</v>
       </c>
-      <c r="F16" s="6">
+      <c r="L16" s="6">
         <v>2907</v>
       </c>
-      <c r="G16" s="6">
+      <c r="M16" s="6">
         <v>2818</v>
       </c>
-      <c r="H16" s="6">
+      <c r="N16" s="6">
         <v>2265</v>
       </c>
-      <c r="I16" s="6">
+      <c r="O16" s="6">
         <v>2759</v>
       </c>
-      <c r="J16" s="6">
+      <c r="P16" s="6">
         <v>2504</v>
       </c>
-      <c r="K16" s="6">
+      <c r="Q16" s="6">
         <v>2241</v>
       </c>
-      <c r="L16" s="6">
+      <c r="R16" s="6">
         <v>2256</v>
       </c>
-      <c r="M16" s="6">
+      <c r="S16" s="6">
         <v>2045</v>
       </c>
-      <c r="N16" s="6">
+      <c r="T16" s="6">
         <v>2261</v>
       </c>
-      <c r="O16" s="6">
+      <c r="U16" s="6">
         <v>2300</v>
       </c>
-      <c r="P16" s="6">
+      <c r="V16" s="6">
         <v>2340</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="W16" s="6">
         <v>2551</v>
       </c>
-      <c r="R16" s="6">
+      <c r="X16" s="6">
         <v>2098</v>
       </c>
-      <c r="S16" s="6">
+      <c r="Y16" s="6">
         <v>2094</v>
       </c>
-      <c r="T16" s="6">
+      <c r="Z16" s="6">
         <v>2280</v>
       </c>
-      <c r="U16" s="6">
+      <c r="AA16" s="6">
         <v>2253</v>
       </c>
-      <c r="V16" s="6">
+      <c r="AB16" s="6">
         <v>2259</v>
       </c>
-      <c r="W16" s="6">
+      <c r="AC16" s="6">
         <v>2189</v>
       </c>
-      <c r="X16" s="6">
+      <c r="AD16" s="6">
         <v>2159</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="AE16" s="6">
         <v>1845</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AF16" s="6">
         <v>2209</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
+        <v>719</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1004</v>
+      </c>
+      <c r="E17" s="5">
+        <v>819</v>
+      </c>
+      <c r="F17" s="5">
+        <v>821</v>
+      </c>
+      <c r="G17" s="5">
+        <v>872</v>
+      </c>
+      <c r="H17" s="6">
         <v>1103</v>
       </c>
-      <c r="C17" s="6">
+      <c r="I17" s="6">
         <v>923</v>
       </c>
-      <c r="D17" s="6">
+      <c r="J17" s="6">
         <v>1263</v>
       </c>
-      <c r="E17" s="6">
+      <c r="K17" s="6">
         <v>1376</v>
       </c>
-      <c r="F17" s="6">
+      <c r="L17" s="6">
         <v>1046</v>
       </c>
-      <c r="G17" s="6">
+      <c r="M17" s="6">
         <v>644</v>
       </c>
-      <c r="H17" s="6">
+      <c r="N17" s="6">
         <v>1126</v>
       </c>
-      <c r="I17" s="6">
+      <c r="O17" s="6">
         <v>1506</v>
       </c>
-      <c r="J17" s="6">
+      <c r="P17" s="6">
         <v>1893</v>
       </c>
-      <c r="K17" s="6">
+      <c r="Q17" s="6">
         <v>1971</v>
       </c>
-      <c r="L17" s="6">
+      <c r="R17" s="6">
         <v>2647</v>
       </c>
-      <c r="M17" s="6">
+      <c r="S17" s="6">
         <v>2584</v>
       </c>
-      <c r="N17" s="6">
+      <c r="T17" s="6">
         <v>1306</v>
       </c>
-      <c r="O17" s="6">
+      <c r="U17" s="6">
         <v>2775</v>
       </c>
-      <c r="P17" s="6">
+      <c r="V17" s="6">
         <v>4212</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="W17" s="6">
         <v>4599</v>
       </c>
-      <c r="R17" s="6">
+      <c r="X17" s="6">
         <v>4639</v>
       </c>
-      <c r="S17" s="6">
+      <c r="Y17" s="6">
         <v>4851</v>
       </c>
-      <c r="T17" s="6">
+      <c r="Z17" s="6">
         <v>5062</v>
       </c>
-      <c r="U17" s="6">
+      <c r="AA17" s="6">
         <v>5303</v>
       </c>
-      <c r="V17" s="6">
+      <c r="AB17" s="6">
         <v>5558</v>
       </c>
-      <c r="W17" s="6">
+      <c r="AC17" s="6">
         <v>5352</v>
       </c>
-      <c r="X17" s="6">
+      <c r="AD17" s="6">
         <v>5379</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="AE17" s="6">
         <v>5478</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AF17" s="6">
         <v>5767</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
+        <v>293</v>
+      </c>
+      <c r="C18" s="5">
+        <v>306</v>
+      </c>
+      <c r="D18" s="5">
+        <v>241</v>
+      </c>
+      <c r="E18" s="5">
+        <v>237</v>
+      </c>
+      <c r="F18" s="5">
+        <v>402</v>
+      </c>
+      <c r="G18" s="5">
+        <v>286</v>
+      </c>
+      <c r="H18" s="6">
         <v>320</v>
       </c>
-      <c r="C18" s="6">
+      <c r="I18" s="6">
         <v>289</v>
       </c>
-      <c r="D18" s="6">
+      <c r="J18" s="6">
         <v>175</v>
       </c>
-      <c r="E18" s="6">
+      <c r="K18" s="6">
         <v>38</v>
       </c>
-      <c r="F18" s="6">
+      <c r="L18" s="6">
         <v>49</v>
       </c>
-      <c r="G18" s="6">
+      <c r="M18" s="6">
         <v>40</v>
       </c>
-      <c r="H18" s="6">
+      <c r="N18" s="6">
         <v>59</v>
       </c>
-      <c r="I18" s="6">
+      <c r="O18" s="6">
         <v>31</v>
       </c>
-      <c r="J18" s="6">
+      <c r="P18" s="6">
         <v>22</v>
       </c>
-      <c r="K18" s="6">
+      <c r="Q18" s="6">
         <v>1618</v>
       </c>
-      <c r="L18" s="6">
+      <c r="R18" s="6">
         <v>1424</v>
       </c>
-      <c r="M18" s="6">
+      <c r="S18" s="6">
         <v>1420</v>
       </c>
-      <c r="N18" s="6">
+      <c r="T18" s="6">
         <v>1209</v>
       </c>
-      <c r="O18" s="6">
+      <c r="U18" s="6">
         <v>2204</v>
       </c>
-      <c r="P18" s="6">
+      <c r="V18" s="6">
         <v>3231</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="W18" s="6">
         <v>2622</v>
       </c>
-      <c r="R18" s="6">
+      <c r="X18" s="6">
         <v>2496</v>
       </c>
-      <c r="S18" s="6">
+      <c r="Y18" s="6">
         <v>2133</v>
       </c>
-      <c r="T18" s="6">
+      <c r="Z18" s="6">
         <v>1487</v>
       </c>
-      <c r="U18" s="6">
+      <c r="AA18" s="6">
         <v>850</v>
       </c>
-      <c r="V18" s="6">
+      <c r="AB18" s="6">
         <v>704</v>
       </c>
-      <c r="W18" s="6">
+      <c r="AC18" s="6">
         <v>926</v>
       </c>
-      <c r="X18" s="6">
+      <c r="AD18" s="6">
         <v>667</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="AE18" s="6">
         <v>883</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AF18" s="6">
         <v>575</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
+        <v>1455</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1354</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1422</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1360</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1398</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1936</v>
+      </c>
+      <c r="H19" s="6">
         <v>1554</v>
       </c>
-      <c r="C19" s="6">
+      <c r="I19" s="6">
         <v>1775</v>
       </c>
-      <c r="D19" s="6">
+      <c r="J19" s="6">
         <v>1860</v>
       </c>
-      <c r="E19" s="6">
+      <c r="K19" s="6">
         <v>2555</v>
       </c>
-      <c r="F19" s="6">
+      <c r="L19" s="6">
         <v>2402</v>
       </c>
-      <c r="G19" s="6">
+      <c r="M19" s="6">
         <v>2350</v>
       </c>
-      <c r="H19" s="6">
+      <c r="N19" s="6">
         <v>2400</v>
       </c>
-      <c r="I19" s="6">
+      <c r="O19" s="6">
         <v>2806</v>
       </c>
-      <c r="J19" s="6">
+      <c r="P19" s="6">
         <v>2783</v>
       </c>
-      <c r="K19" s="6">
+      <c r="Q19" s="6">
         <v>3281</v>
       </c>
-      <c r="L19" s="6">
+      <c r="R19" s="6">
         <v>3278</v>
       </c>
-      <c r="M19" s="6">
+      <c r="S19" s="6">
         <v>3594</v>
       </c>
-      <c r="N19" s="6">
+      <c r="T19" s="6">
         <v>3408</v>
       </c>
-      <c r="O19" s="6">
+      <c r="U19" s="6">
         <v>3288</v>
       </c>
-      <c r="P19" s="6">
+      <c r="V19" s="6">
         <v>3240</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="W19" s="6">
         <v>2919</v>
       </c>
-      <c r="R19" s="6">
+      <c r="X19" s="6">
         <v>3282</v>
       </c>
-      <c r="S19" s="6">
+      <c r="Y19" s="6">
         <v>3385</v>
       </c>
-      <c r="T19" s="6">
+      <c r="Z19" s="6">
         <v>3468</v>
       </c>
-      <c r="U19" s="6">
+      <c r="AA19" s="6">
         <v>3445</v>
       </c>
-      <c r="V19" s="6">
+      <c r="AB19" s="6">
         <v>3419</v>
       </c>
-      <c r="W19" s="6">
+      <c r="AC19" s="6">
         <v>3216</v>
       </c>
-      <c r="X19" s="6">
+      <c r="AD19" s="6">
         <v>2962</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="AE19" s="6">
         <v>3217</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AF19" s="6">
         <v>4097</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5">
+        <v>114</v>
+      </c>
+      <c r="D20" s="5">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5">
+        <v>65</v>
+      </c>
+      <c r="G20" s="5">
+        <v>67</v>
+      </c>
+      <c r="H20" s="6">
         <v>66</v>
       </c>
-      <c r="C20" s="6">
+      <c r="I20" s="6">
         <v>70</v>
       </c>
-      <c r="D20" s="6">
+      <c r="J20" s="6">
         <v>65</v>
       </c>
-      <c r="E20" s="6">
+      <c r="K20" s="6">
         <v>73</v>
       </c>
-      <c r="F20" s="6">
+      <c r="L20" s="6">
         <v>73</v>
       </c>
-      <c r="G20" s="6">
+      <c r="M20" s="6">
         <v>68</v>
       </c>
-      <c r="H20" s="6">
+      <c r="N20" s="6">
         <v>67</v>
       </c>
-      <c r="I20" s="6">
+      <c r="O20" s="6">
         <v>65</v>
       </c>
-      <c r="J20" s="6">
+      <c r="P20" s="6">
         <v>70</v>
       </c>
-      <c r="K20" s="6">
+      <c r="Q20" s="6">
         <v>52</v>
       </c>
-      <c r="L20" s="6">
+      <c r="R20" s="6">
         <v>37</v>
       </c>
-      <c r="M20" s="6">
+      <c r="S20" s="6">
         <v>48</v>
       </c>
-      <c r="N20" s="6">
+      <c r="T20" s="6">
         <v>159</v>
       </c>
-      <c r="O20" s="6">
+      <c r="U20" s="6">
         <v>37</v>
       </c>
-      <c r="P20" s="6">
+      <c r="V20" s="6">
         <v>37</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="W20" s="6">
         <v>38</v>
       </c>
-      <c r="R20" s="6">
+      <c r="X20" s="6">
         <v>36</v>
       </c>
-      <c r="S20" s="6">
+      <c r="Y20" s="6">
         <v>34</v>
       </c>
-      <c r="T20" s="6">
+      <c r="Z20" s="6">
         <v>34</v>
       </c>
-      <c r="U20" s="6">
+      <c r="AA20" s="6">
         <v>69</v>
       </c>
-      <c r="V20" s="6">
+      <c r="AB20" s="6">
         <v>34</v>
       </c>
-      <c r="W20" s="6">
+      <c r="AC20" s="6">
         <v>40</v>
       </c>
-      <c r="X20" s="6">
+      <c r="AD20" s="6">
         <v>42</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="AE20" s="6">
         <v>50</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AF20" s="6">
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
+        <v>11809</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12438</v>
+      </c>
+      <c r="D21" s="5">
+        <v>13217</v>
+      </c>
+      <c r="E21" s="5">
+        <v>13298</v>
+      </c>
+      <c r="F21" s="5">
+        <v>13410</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12634</v>
+      </c>
+      <c r="H21" s="6">
         <v>13749</v>
       </c>
-      <c r="C21" s="6">
+      <c r="I21" s="6">
         <v>16375</v>
       </c>
-      <c r="D21" s="6">
+      <c r="J21" s="6">
         <v>17556</v>
       </c>
-      <c r="E21" s="6">
+      <c r="K21" s="6">
         <v>18657</v>
       </c>
-      <c r="F21" s="6">
+      <c r="L21" s="6">
         <v>17523</v>
       </c>
-      <c r="G21" s="6">
+      <c r="M21" s="6">
         <v>16765</v>
       </c>
-      <c r="H21" s="6">
+      <c r="N21" s="6">
         <v>18995</v>
       </c>
-      <c r="I21" s="6">
+      <c r="O21" s="6">
         <v>19596</v>
       </c>
-      <c r="J21" s="6">
+      <c r="P21" s="6">
         <v>19859</v>
       </c>
-      <c r="K21" s="6">
+      <c r="Q21" s="6">
         <v>18123</v>
       </c>
-      <c r="L21" s="6">
+      <c r="R21" s="6">
         <v>18244</v>
       </c>
-      <c r="M21" s="6">
+      <c r="S21" s="6">
         <v>23817</v>
       </c>
-      <c r="N21" s="6">
+      <c r="T21" s="6">
         <v>26894</v>
       </c>
-      <c r="O21" s="6">
+      <c r="U21" s="6">
         <v>23968</v>
       </c>
-      <c r="P21" s="6">
+      <c r="V21" s="6">
         <v>24503</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="W21" s="6">
         <v>26359</v>
       </c>
-      <c r="R21" s="6">
+      <c r="X21" s="6">
         <v>25497</v>
       </c>
-      <c r="S21" s="6">
+      <c r="Y21" s="6">
         <v>26125</v>
       </c>
-      <c r="T21" s="6">
+      <c r="Z21" s="6">
         <v>27383</v>
       </c>
-      <c r="U21" s="6">
+      <c r="AA21" s="6">
         <v>26873</v>
       </c>
-      <c r="V21" s="6">
+      <c r="AB21" s="6">
         <v>32268</v>
       </c>
-      <c r="W21" s="6">
+      <c r="AC21" s="6">
         <v>31321</v>
       </c>
-      <c r="X21" s="6">
+      <c r="AD21" s="6">
         <v>26945</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="AE21" s="6">
         <v>27131</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AF21" s="6">
         <v>27283</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
+        <v>24438</v>
+      </c>
+      <c r="C22" s="5">
+        <v>27275</v>
+      </c>
+      <c r="D22" s="5">
+        <v>29033</v>
+      </c>
+      <c r="E22" s="5">
+        <v>30491</v>
+      </c>
+      <c r="F22" s="5">
+        <v>32306</v>
+      </c>
+      <c r="G22" s="5">
+        <v>33012</v>
+      </c>
+      <c r="H22" s="6">
         <v>35906</v>
       </c>
-      <c r="C22" s="6">
+      <c r="I22" s="6">
         <v>35735</v>
       </c>
-      <c r="D22" s="6">
+      <c r="J22" s="6">
         <v>34750</v>
       </c>
-      <c r="E22" s="6">
+      <c r="K22" s="6">
         <v>30436</v>
       </c>
-      <c r="F22" s="6">
+      <c r="L22" s="6">
         <v>34274</v>
       </c>
-      <c r="G22" s="6">
+      <c r="M22" s="6">
         <v>33218</v>
       </c>
-      <c r="H22" s="6">
+      <c r="N22" s="6">
         <v>46238</v>
       </c>
-      <c r="I22" s="6">
+      <c r="O22" s="6">
         <v>56688</v>
       </c>
-      <c r="J22" s="6">
+      <c r="P22" s="6">
         <v>69587</v>
       </c>
-      <c r="K22" s="6">
+      <c r="Q22" s="6">
         <v>76586</v>
       </c>
-      <c r="L22" s="6">
+      <c r="R22" s="6">
         <v>86377</v>
       </c>
-      <c r="M22" s="6">
+      <c r="S22" s="6">
         <v>90973</v>
       </c>
-      <c r="N22" s="6">
+      <c r="T22" s="6">
         <v>99075</v>
       </c>
-      <c r="O22" s="6">
+      <c r="U22" s="6">
         <v>99232</v>
       </c>
-      <c r="P22" s="6">
+      <c r="V22" s="6">
         <v>105343</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="W22" s="6">
         <v>105831</v>
       </c>
-      <c r="R22" s="6">
+      <c r="X22" s="6">
         <v>106217</v>
       </c>
-      <c r="S22" s="6">
+      <c r="Y22" s="6">
         <v>108967</v>
       </c>
-      <c r="T22" s="6">
+      <c r="Z22" s="6">
         <v>113608</v>
       </c>
-      <c r="U22" s="6">
+      <c r="AA22" s="6">
         <v>115368</v>
       </c>
-      <c r="V22" s="6">
+      <c r="AB22" s="6">
         <v>114008</v>
       </c>
-      <c r="W22" s="6">
+      <c r="AC22" s="6">
         <v>112186</v>
       </c>
-      <c r="X22" s="6">
+      <c r="AD22" s="6">
         <v>108878</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="AE22" s="6">
         <v>107447</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AF22" s="6">
         <v>108784</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
+        <v>511963</v>
+      </c>
+      <c r="C23" s="5">
+        <v>592338</v>
+      </c>
+      <c r="D23" s="5">
+        <v>609224</v>
+      </c>
+      <c r="E23" s="5">
+        <v>592126</v>
+      </c>
+      <c r="F23" s="5">
+        <v>574393</v>
+      </c>
+      <c r="G23" s="5">
+        <v>634986</v>
+      </c>
+      <c r="H23" s="6">
         <v>710302</v>
       </c>
-      <c r="C23" s="6">
+      <c r="I23" s="6">
         <v>694796</v>
       </c>
-      <c r="D23" s="6">
+      <c r="J23" s="6">
         <v>655567</v>
       </c>
-      <c r="E23" s="6">
+      <c r="K23" s="6">
         <v>595960</v>
       </c>
-      <c r="F23" s="6">
+      <c r="L23" s="6">
         <v>599703</v>
       </c>
-      <c r="G23" s="6">
+      <c r="M23" s="6">
         <v>593908</v>
       </c>
-      <c r="H23" s="6">
+      <c r="N23" s="6">
         <v>632466</v>
       </c>
-      <c r="I23" s="6">
+      <c r="O23" s="6">
         <v>625690</v>
       </c>
-      <c r="J23" s="6">
+      <c r="P23" s="6">
         <v>630942</v>
       </c>
-      <c r="K23" s="6">
+      <c r="Q23" s="6">
         <v>604213</v>
       </c>
-      <c r="L23" s="6">
+      <c r="R23" s="6">
         <v>601947</v>
       </c>
-      <c r="M23" s="6">
+      <c r="S23" s="6">
         <v>609485</v>
       </c>
-      <c r="N23" s="6">
+      <c r="T23" s="6">
         <v>608196</v>
       </c>
-      <c r="O23" s="6">
+      <c r="U23" s="6">
         <v>596177</v>
       </c>
-      <c r="P23" s="6">
+      <c r="V23" s="6">
         <v>578305</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="W23" s="6">
         <v>557895</v>
       </c>
-      <c r="R23" s="6">
+      <c r="X23" s="6">
         <v>597886</v>
       </c>
-      <c r="S23" s="6">
+      <c r="Y23" s="6">
         <v>582420</v>
       </c>
-      <c r="T23" s="6">
+      <c r="Z23" s="6">
         <v>589857</v>
       </c>
-      <c r="U23" s="6">
+      <c r="AA23" s="6">
         <v>557253</v>
       </c>
-      <c r="V23" s="6">
+      <c r="AB23" s="6">
         <v>533920</v>
       </c>
-      <c r="W23" s="6">
+      <c r="AC23" s="6">
         <v>518367</v>
       </c>
-      <c r="X23" s="6">
+      <c r="AD23" s="6">
         <v>488049</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="AE23" s="6">
         <v>468659</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AF23" s="6">
         <v>466285</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
+        <v>21771</v>
+      </c>
+      <c r="C24" s="5">
+        <v>24162</v>
+      </c>
+      <c r="D24" s="5">
+        <v>26368</v>
+      </c>
+      <c r="E24" s="5">
+        <v>25562</v>
+      </c>
+      <c r="F24" s="5">
+        <v>24021</v>
+      </c>
+      <c r="G24" s="5">
+        <v>24254</v>
+      </c>
+      <c r="H24" s="6">
         <v>23760</v>
       </c>
-      <c r="C24" s="6">
+      <c r="I24" s="6">
         <v>25745</v>
       </c>
-      <c r="D24" s="6">
+      <c r="J24" s="6">
         <v>25131</v>
       </c>
-      <c r="E24" s="6">
+      <c r="K24" s="6">
         <v>27030</v>
       </c>
-      <c r="F24" s="6">
+      <c r="L24" s="6">
         <v>28495</v>
       </c>
-      <c r="G24" s="6">
+      <c r="M24" s="6">
         <v>29680</v>
       </c>
-      <c r="H24" s="6">
+      <c r="N24" s="6">
         <v>29772</v>
       </c>
-      <c r="I24" s="6">
+      <c r="O24" s="6">
         <v>28274</v>
       </c>
-      <c r="J24" s="6">
+      <c r="P24" s="6">
         <v>28849</v>
       </c>
-      <c r="K24" s="6">
+      <c r="Q24" s="6">
         <v>54824</v>
       </c>
-      <c r="L24" s="6">
+      <c r="R24" s="6">
         <v>55765</v>
       </c>
-      <c r="M24" s="6">
+      <c r="S24" s="6">
         <v>60520</v>
       </c>
-      <c r="N24" s="6">
+      <c r="T24" s="6">
         <v>61038</v>
       </c>
-      <c r="O24" s="6">
+      <c r="U24" s="6">
         <v>66212</v>
       </c>
-      <c r="P24" s="6">
+      <c r="V24" s="6">
         <v>75865</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="W24" s="6">
         <v>79285</v>
       </c>
-      <c r="R24" s="6">
+      <c r="X24" s="6">
         <v>79594</v>
       </c>
-      <c r="S24" s="6">
+      <c r="Y24" s="6">
         <v>82471</v>
       </c>
-      <c r="T24" s="6">
+      <c r="Z24" s="6">
         <v>85080</v>
       </c>
-      <c r="U24" s="6">
+      <c r="AA24" s="6">
         <v>89761</v>
       </c>
-      <c r="V24" s="6">
+      <c r="AB24" s="6">
         <v>100948</v>
       </c>
-      <c r="W24" s="6">
+      <c r="AC24" s="6">
         <v>103359</v>
       </c>
-      <c r="X24" s="6">
+      <c r="AD24" s="6">
         <v>107006</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="AE24" s="6">
         <v>112187</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="AF24" s="6">
         <v>119448</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6">
         <v>45838</v>
       </c>
-      <c r="C25" s="6">
+      <c r="I25" s="6">
         <v>49063</v>
       </c>
-      <c r="D25" s="6">
+      <c r="J25" s="6">
         <v>53687</v>
       </c>
-      <c r="E25" s="6">
+      <c r="K25" s="6">
         <v>56188</v>
       </c>
-      <c r="F25" s="6">
+      <c r="L25" s="6">
         <v>55353</v>
       </c>
-      <c r="G25" s="6">
+      <c r="M25" s="6">
         <v>53129</v>
       </c>
-      <c r="H25" s="6">
+      <c r="N25" s="6">
         <v>56853</v>
       </c>
-      <c r="I25" s="6">
+      <c r="O25" s="6">
         <v>62669</v>
       </c>
-      <c r="J25" s="6">
+      <c r="P25" s="6">
         <v>63110</v>
       </c>
-      <c r="K25" s="6">
+      <c r="Q25" s="6">
         <v>72603</v>
       </c>
-      <c r="L25" s="6">
+      <c r="R25" s="6">
         <v>71228</v>
       </c>
-      <c r="M25" s="6">
+      <c r="S25" s="6">
         <v>73835</v>
       </c>
-      <c r="N25" s="6">
+      <c r="T25" s="6">
         <v>79821</v>
       </c>
-      <c r="O25" s="6">
+      <c r="U25" s="6">
         <v>80535</v>
       </c>
-      <c r="P25" s="6">
+      <c r="V25" s="6">
         <v>95137</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="W25" s="6">
         <v>99015</v>
       </c>
-      <c r="R25" s="6">
+      <c r="X25" s="6">
         <v>100018</v>
       </c>
-      <c r="S25" s="6">
+      <c r="Y25" s="6">
         <v>88624</v>
       </c>
-      <c r="T25" s="6">
+      <c r="Z25" s="6">
         <v>87005</v>
       </c>
-      <c r="U25" s="6">
+      <c r="AA25" s="6">
         <v>85594</v>
       </c>
-      <c r="V25" s="6">
+      <c r="AB25" s="6">
         <v>81649</v>
       </c>
-      <c r="W25" s="6">
+      <c r="AC25" s="6">
         <v>82757</v>
       </c>
-      <c r="X25" s="6">
+      <c r="AD25" s="6">
         <v>74510</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="AE25" s="6">
         <v>74456</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AF25" s="6">
         <v>75507</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6">
         <v>1329</v>
       </c>
-      <c r="C26" s="6">
+      <c r="I26" s="6">
         <v>1325</v>
       </c>
-      <c r="D26" s="6">
+      <c r="J26" s="6">
         <v>1107</v>
       </c>
-      <c r="E26" s="6">
+      <c r="K26" s="6">
         <v>1463</v>
       </c>
-      <c r="F26" s="6">
+      <c r="L26" s="6">
         <v>929</v>
       </c>
-      <c r="G26" s="6">
+      <c r="M26" s="6">
         <v>947</v>
       </c>
-      <c r="H26" s="6">
+      <c r="N26" s="6">
         <v>1073</v>
       </c>
-      <c r="I26" s="6">
+      <c r="O26" s="6">
         <v>1141</v>
       </c>
-      <c r="J26" s="6">
+      <c r="P26" s="6">
         <v>1113</v>
       </c>
-      <c r="K26" s="6">
+      <c r="Q26" s="6">
         <v>2192</v>
       </c>
-      <c r="L26" s="6">
+      <c r="R26" s="6">
         <v>2371</v>
       </c>
-      <c r="M26" s="6">
+      <c r="S26" s="6">
         <v>2762</v>
       </c>
-      <c r="N26" s="6">
+      <c r="T26" s="6">
         <v>3084</v>
       </c>
-      <c r="O26" s="6">
+      <c r="U26" s="6">
         <v>3265</v>
       </c>
-      <c r="P26" s="6">
+      <c r="V26" s="6">
         <v>3357</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="W26" s="6">
         <v>3015</v>
       </c>
-      <c r="R26" s="6">
+      <c r="X26" s="6">
         <v>2877</v>
       </c>
-      <c r="S26" s="6">
+      <c r="Y26" s="6">
         <v>2693</v>
       </c>
-      <c r="T26" s="6">
+      <c r="Z26" s="6">
         <v>2396</v>
       </c>
-      <c r="U26" s="6">
+      <c r="AA26" s="6">
         <v>2171</v>
       </c>
-      <c r="V26" s="6">
+      <c r="AB26" s="6">
         <v>2129</v>
       </c>
-      <c r="W26" s="6">
+      <c r="AC26" s="6">
         <v>2041</v>
       </c>
-      <c r="X26" s="6">
+      <c r="AD26" s="6">
         <v>1948</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="AE26" s="6">
         <v>1836</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AF26" s="6">
         <v>1782</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5">
+        <v>42</v>
+      </c>
+      <c r="G27" s="5">
+        <v>103</v>
+      </c>
+      <c r="H27" s="6">
         <v>98</v>
       </c>
-      <c r="C27" s="6">
+      <c r="I27" s="6">
         <v>104</v>
       </c>
-      <c r="D27" s="6">
+      <c r="J27" s="6">
         <v>103</v>
       </c>
-      <c r="E27" s="6">
+      <c r="K27" s="6">
         <v>97</v>
       </c>
-      <c r="F27" s="6">
+      <c r="L27" s="6">
         <v>70</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="M27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2851,1529 +3158,1823 @@
       <c r="Z27" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6">
         <v>857283</v>
       </c>
-      <c r="C28" s="6">
+      <c r="I28" s="6">
         <v>850876</v>
       </c>
-      <c r="D28" s="6">
+      <c r="J28" s="6">
         <v>812411</v>
       </c>
-      <c r="E28" s="6">
+      <c r="K28" s="6">
         <v>758122</v>
       </c>
-      <c r="F28" s="6">
+      <c r="L28" s="6">
         <v>764114</v>
       </c>
-      <c r="G28" s="6">
+      <c r="M28" s="6">
         <v>752394</v>
       </c>
-      <c r="H28" s="6">
+      <c r="N28" s="6">
         <v>812070</v>
       </c>
-      <c r="I28" s="6">
+      <c r="O28" s="6">
         <v>821415</v>
       </c>
-      <c r="J28" s="6">
+      <c r="P28" s="6">
         <v>843359</v>
       </c>
-      <c r="K28" s="6">
+      <c r="Q28" s="6">
         <v>872317</v>
       </c>
-      <c r="L28" s="6">
+      <c r="R28" s="6">
         <v>879615</v>
       </c>
-      <c r="M28" s="6">
+      <c r="S28" s="6">
         <v>911272</v>
       </c>
-      <c r="N28" s="6">
+      <c r="T28" s="6">
         <v>929913</v>
       </c>
-      <c r="O28" s="6">
+      <c r="U28" s="6">
         <v>926010</v>
       </c>
-      <c r="P28" s="6">
+      <c r="V28" s="6">
         <v>944768</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="W28" s="6">
         <v>931627</v>
       </c>
-      <c r="R28" s="6">
+      <c r="X28" s="6">
         <v>973527</v>
       </c>
-      <c r="S28" s="6">
+      <c r="Y28" s="6">
         <v>953684</v>
       </c>
-      <c r="T28" s="6">
+      <c r="Z28" s="6">
         <v>967514</v>
       </c>
-      <c r="U28" s="6">
+      <c r="AA28" s="6">
         <v>937248</v>
       </c>
-      <c r="V28" s="6">
+      <c r="AB28" s="6">
         <v>933863</v>
       </c>
-      <c r="W28" s="6">
+      <c r="AC28" s="6">
         <v>919125</v>
       </c>
-      <c r="X28" s="6">
+      <c r="AD28" s="6">
         <v>873780</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="AE28" s="6">
         <v>860144</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AF28" s="6">
         <v>869022</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="16"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
+        <v>1544</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1598</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1508</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1450</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1348</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1271</v>
+      </c>
+      <c r="H30" s="6">
         <v>1252</v>
       </c>
-      <c r="C30" s="6">
+      <c r="I30" s="6">
         <v>1252</v>
       </c>
-      <c r="D30" s="6">
+      <c r="J30" s="6">
         <v>1234</v>
       </c>
-      <c r="E30" s="6">
+      <c r="K30" s="6">
         <v>1309</v>
       </c>
-      <c r="F30" s="6">
+      <c r="L30" s="6">
         <v>1237</v>
       </c>
-      <c r="G30" s="6">
+      <c r="M30" s="6">
         <v>1318</v>
       </c>
-      <c r="H30" s="6">
+      <c r="N30" s="6">
         <v>1313</v>
       </c>
-      <c r="I30" s="6">
+      <c r="O30" s="6">
         <v>1286</v>
       </c>
-      <c r="J30" s="6">
+      <c r="P30" s="6">
         <v>1250</v>
       </c>
-      <c r="K30" s="6">
+      <c r="Q30" s="6">
         <v>1355</v>
       </c>
-      <c r="L30" s="6">
+      <c r="R30" s="6">
         <v>1413</v>
       </c>
-      <c r="M30" s="6">
+      <c r="S30" s="6">
         <v>1466</v>
       </c>
-      <c r="N30" s="6">
+      <c r="T30" s="6">
         <v>1412</v>
       </c>
-      <c r="O30" s="6">
+      <c r="U30" s="6">
         <v>1348</v>
       </c>
-      <c r="P30" s="6">
+      <c r="V30" s="6">
         <v>1374</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="W30" s="6">
         <v>1215</v>
       </c>
-      <c r="R30" s="6">
+      <c r="X30" s="6">
         <v>1144</v>
       </c>
-      <c r="S30" s="6">
+      <c r="Y30" s="6">
         <v>1244</v>
       </c>
-      <c r="T30" s="6">
+      <c r="Z30" s="6">
         <v>1222</v>
       </c>
-      <c r="U30" s="6">
+      <c r="AA30" s="6">
         <v>1187</v>
       </c>
-      <c r="V30" s="6">
+      <c r="AB30" s="6">
         <v>1140</v>
       </c>
-      <c r="W30" s="6">
+      <c r="AC30" s="6">
         <v>1157</v>
       </c>
-      <c r="X30" s="6">
+      <c r="AD30" s="6">
         <v>1112</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="AE30" s="6">
         <v>1085</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="AF30" s="6">
         <v>1049</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
+        <v>1303</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1183</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1253</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1347</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1553</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1629</v>
+      </c>
+      <c r="H31" s="6">
         <v>1291</v>
       </c>
-      <c r="C31" s="6">
+      <c r="I31" s="6">
         <v>1291</v>
       </c>
-      <c r="D31" s="6">
+      <c r="J31" s="6">
         <v>1223</v>
       </c>
-      <c r="E31" s="6">
+      <c r="K31" s="6">
         <v>1866</v>
       </c>
-      <c r="F31" s="6">
+      <c r="L31" s="6">
         <v>2134</v>
       </c>
-      <c r="G31" s="6">
+      <c r="M31" s="6">
         <v>1770</v>
       </c>
-      <c r="H31" s="6">
+      <c r="N31" s="6">
         <v>1783</v>
       </c>
-      <c r="I31" s="6">
+      <c r="O31" s="6">
         <v>2058</v>
       </c>
-      <c r="J31" s="6">
+      <c r="P31" s="6">
         <v>2031</v>
       </c>
-      <c r="K31" s="6">
+      <c r="Q31" s="6">
         <v>3115</v>
       </c>
-      <c r="L31" s="6">
+      <c r="R31" s="6">
         <v>3424</v>
       </c>
-      <c r="M31" s="6">
+      <c r="S31" s="6">
         <v>3729</v>
       </c>
-      <c r="N31" s="6">
+      <c r="T31" s="6">
         <v>3681</v>
       </c>
-      <c r="O31" s="6">
+      <c r="U31" s="6">
         <v>3639</v>
       </c>
-      <c r="P31" s="6">
+      <c r="V31" s="6">
         <v>3169</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="W31" s="6">
         <v>3769</v>
       </c>
-      <c r="R31" s="6">
+      <c r="X31" s="6">
         <v>3823</v>
       </c>
-      <c r="S31" s="6">
+      <c r="Y31" s="6">
         <v>3782</v>
       </c>
-      <c r="T31" s="6">
+      <c r="Z31" s="6">
         <v>3588</v>
       </c>
-      <c r="U31" s="6">
+      <c r="AA31" s="6">
         <v>3496</v>
       </c>
-      <c r="V31" s="6">
+      <c r="AB31" s="6">
         <v>3576</v>
       </c>
-      <c r="W31" s="6">
+      <c r="AC31" s="6">
         <v>3374</v>
       </c>
-      <c r="X31" s="6">
+      <c r="AD31" s="6">
         <v>3282</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="AE31" s="6">
         <v>2716</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="AF31" s="6">
         <v>2424</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
+        <v>1546</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1645</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1780</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1627</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1511</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1634</v>
+      </c>
+      <c r="H32" s="6">
         <v>1672</v>
       </c>
-      <c r="C32" s="6">
+      <c r="I32" s="6">
         <v>1672</v>
       </c>
-      <c r="D32" s="6">
+      <c r="J32" s="6">
         <v>1580</v>
       </c>
-      <c r="E32" s="6">
+      <c r="K32" s="6">
         <v>1711</v>
       </c>
-      <c r="F32" s="6">
+      <c r="L32" s="6">
         <v>1559</v>
       </c>
-      <c r="G32" s="6">
+      <c r="M32" s="6">
         <v>1668</v>
       </c>
-      <c r="H32" s="6">
+      <c r="N32" s="6">
         <v>1749</v>
       </c>
-      <c r="I32" s="6">
+      <c r="O32" s="6">
         <v>1752</v>
       </c>
-      <c r="J32" s="6">
+      <c r="P32" s="6">
         <v>1583</v>
       </c>
-      <c r="K32" s="6">
+      <c r="Q32" s="6">
         <v>1656</v>
       </c>
-      <c r="L32" s="6">
+      <c r="R32" s="6">
         <v>1674</v>
       </c>
-      <c r="M32" s="6">
+      <c r="S32" s="6">
         <v>1728</v>
       </c>
-      <c r="N32" s="6">
+      <c r="T32" s="6">
         <v>1650</v>
       </c>
-      <c r="O32" s="6">
+      <c r="U32" s="6">
         <v>1557</v>
       </c>
-      <c r="P32" s="6">
+      <c r="V32" s="6">
         <v>1670</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="W32" s="6">
         <v>1575</v>
       </c>
-      <c r="R32" s="6">
+      <c r="X32" s="6">
         <v>1501</v>
       </c>
-      <c r="S32" s="6">
+      <c r="Y32" s="6">
         <v>1694</v>
       </c>
-      <c r="T32" s="6">
+      <c r="Z32" s="6">
         <v>1817</v>
       </c>
-      <c r="U32" s="6">
+      <c r="AA32" s="6">
         <v>1646</v>
       </c>
-      <c r="V32" s="6">
+      <c r="AB32" s="6">
         <v>1693</v>
       </c>
-      <c r="W32" s="6">
+      <c r="AC32" s="6">
         <v>1642</v>
       </c>
-      <c r="X32" s="6">
+      <c r="AD32" s="6">
         <v>1563</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="AE32" s="6">
         <v>1522</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AF32" s="6">
         <v>1538</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
+        <v>114486</v>
+      </c>
+      <c r="C33" s="5">
+        <v>124409</v>
+      </c>
+      <c r="D33" s="5">
+        <v>122364</v>
+      </c>
+      <c r="E33" s="5">
+        <v>110567</v>
+      </c>
+      <c r="F33" s="5">
+        <v>111830</v>
+      </c>
+      <c r="G33" s="5">
+        <v>120275</v>
+      </c>
+      <c r="H33" s="6">
         <v>231465</v>
       </c>
-      <c r="C33" s="6">
+      <c r="I33" s="6">
         <v>232993</v>
       </c>
-      <c r="D33" s="6">
+      <c r="J33" s="6">
         <v>234413</v>
       </c>
-      <c r="E33" s="6">
+      <c r="K33" s="6">
         <v>235191</v>
       </c>
-      <c r="F33" s="6">
+      <c r="L33" s="6">
         <v>235896</v>
       </c>
-      <c r="G33" s="6">
+      <c r="M33" s="6">
         <v>224333</v>
       </c>
-      <c r="H33" s="6">
+      <c r="N33" s="6">
         <v>235267</v>
       </c>
-      <c r="I33" s="6">
+      <c r="O33" s="6">
         <v>234881</v>
       </c>
-      <c r="J33" s="6">
+      <c r="P33" s="6">
         <v>237673</v>
       </c>
-      <c r="K33" s="6">
+      <c r="Q33" s="6">
         <v>246299</v>
       </c>
-      <c r="L33" s="6">
+      <c r="R33" s="6">
         <v>261457</v>
       </c>
-      <c r="M33" s="6">
+      <c r="S33" s="6">
         <v>269450</v>
       </c>
-      <c r="N33" s="6">
+      <c r="T33" s="6">
         <v>313233</v>
       </c>
-      <c r="O33" s="6">
+      <c r="U33" s="6">
         <v>289689</v>
       </c>
-      <c r="P33" s="6">
+      <c r="V33" s="6">
         <v>313555</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="W33" s="6">
         <v>325036</v>
       </c>
-      <c r="R33" s="6">
+      <c r="X33" s="6">
         <v>341971</v>
       </c>
-      <c r="S33" s="6">
+      <c r="Y33" s="6">
         <v>322592</v>
       </c>
-      <c r="T33" s="6">
+      <c r="Z33" s="6">
         <v>338405</v>
       </c>
-      <c r="U33" s="6">
+      <c r="AA33" s="6">
         <v>342077</v>
       </c>
-      <c r="V33" s="6">
+      <c r="AB33" s="6">
         <v>358450</v>
       </c>
-      <c r="W33" s="6">
+      <c r="AC33" s="6">
         <v>352085</v>
       </c>
-      <c r="X33" s="6">
+      <c r="AD33" s="6">
         <v>335928</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="AE33" s="6">
         <v>351433</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AF33" s="6">
         <v>356469</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6">
         <v>235681</v>
       </c>
-      <c r="C34" s="6">
+      <c r="I34" s="6">
         <v>237209</v>
       </c>
-      <c r="D34" s="6">
+      <c r="J34" s="6">
         <v>238451</v>
       </c>
-      <c r="E34" s="6">
+      <c r="K34" s="6">
         <v>240077</v>
       </c>
-      <c r="F34" s="6">
+      <c r="L34" s="6">
         <v>240827</v>
       </c>
-      <c r="G34" s="6">
+      <c r="M34" s="6">
         <v>229089</v>
       </c>
-      <c r="H34" s="6">
+      <c r="N34" s="6">
         <v>240112</v>
       </c>
-      <c r="I34" s="6">
+      <c r="O34" s="6">
         <v>239977</v>
       </c>
-      <c r="J34" s="6">
+      <c r="P34" s="6">
         <v>242536</v>
       </c>
-      <c r="K34" s="6">
+      <c r="Q34" s="6">
         <v>252425</v>
       </c>
-      <c r="L34" s="6">
+      <c r="R34" s="6">
         <v>267967</v>
       </c>
-      <c r="M34" s="6">
+      <c r="S34" s="6">
         <v>276374</v>
       </c>
-      <c r="N34" s="6">
+      <c r="T34" s="6">
         <v>319977</v>
       </c>
-      <c r="O34" s="6">
+      <c r="U34" s="6">
         <v>296233</v>
       </c>
-      <c r="P34" s="6">
+      <c r="V34" s="6">
         <v>319769</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="W34" s="6">
         <v>331595</v>
       </c>
-      <c r="R34" s="6">
+      <c r="X34" s="6">
         <v>348439</v>
       </c>
-      <c r="S34" s="6">
+      <c r="Y34" s="6">
         <v>329311</v>
       </c>
-      <c r="T34" s="6">
+      <c r="Z34" s="6">
         <v>345032</v>
       </c>
-      <c r="U34" s="6">
+      <c r="AA34" s="6">
         <v>348406</v>
       </c>
-      <c r="V34" s="6">
+      <c r="AB34" s="6">
         <v>364859</v>
       </c>
-      <c r="W34" s="6">
+      <c r="AC34" s="6">
         <v>358259</v>
       </c>
-      <c r="X34" s="6">
+      <c r="AD34" s="6">
         <v>341886</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="AE34" s="6">
         <v>356756</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AF34" s="6">
         <v>361480</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="14"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="16"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
+        <v>1912</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3003</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2984</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2797</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2726</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2761</v>
+      </c>
+      <c r="H36" s="6">
         <v>6201</v>
       </c>
-      <c r="C36" s="6">
+      <c r="I36" s="6">
         <v>6299</v>
       </c>
-      <c r="D36" s="6">
+      <c r="J36" s="6">
         <v>6363</v>
       </c>
-      <c r="E36" s="6">
+      <c r="K36" s="6">
         <v>5805</v>
       </c>
-      <c r="F36" s="6">
+      <c r="L36" s="6">
         <v>5888</v>
       </c>
-      <c r="G36" s="6">
+      <c r="M36" s="6">
         <v>5704</v>
       </c>
-      <c r="H36" s="6">
+      <c r="N36" s="6">
         <v>6108</v>
       </c>
-      <c r="I36" s="6">
+      <c r="O36" s="6">
         <v>5974</v>
       </c>
-      <c r="J36" s="6">
+      <c r="P36" s="6">
         <v>5547</v>
       </c>
-      <c r="K36" s="6">
+      <c r="Q36" s="6">
         <v>5403</v>
       </c>
-      <c r="L36" s="6">
+      <c r="R36" s="6">
         <v>5372</v>
       </c>
-      <c r="M36" s="6">
+      <c r="S36" s="6">
         <v>5199</v>
       </c>
-      <c r="N36" s="6">
+      <c r="T36" s="6">
         <v>5240</v>
       </c>
-      <c r="O36" s="6">
+      <c r="U36" s="6">
         <v>5704</v>
       </c>
-      <c r="P36" s="6">
+      <c r="V36" s="6">
         <v>5974</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="W36" s="6">
         <v>5971</v>
       </c>
-      <c r="R36" s="6">
+      <c r="X36" s="6">
         <v>5583</v>
       </c>
-      <c r="S36" s="6">
+      <c r="Y36" s="6">
         <v>5039</v>
       </c>
-      <c r="T36" s="6">
+      <c r="Z36" s="6">
         <v>5048</v>
       </c>
-      <c r="U36" s="6">
+      <c r="AA36" s="6">
         <v>4762</v>
       </c>
-      <c r="V36" s="6">
+      <c r="AB36" s="6">
         <v>4311</v>
       </c>
-      <c r="W36" s="6">
+      <c r="AC36" s="6">
         <v>4341</v>
       </c>
-      <c r="X36" s="6">
+      <c r="AD36" s="6">
         <v>4432</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="AE36" s="6">
         <v>4461</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AF36" s="6">
         <v>5158</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
+        <v>16373</v>
+      </c>
+      <c r="C37" s="5">
+        <v>17714</v>
+      </c>
+      <c r="D37" s="5">
+        <v>17792</v>
+      </c>
+      <c r="E37" s="5">
+        <v>16980</v>
+      </c>
+      <c r="F37" s="5">
+        <v>16128</v>
+      </c>
+      <c r="G37" s="5">
+        <v>16638</v>
+      </c>
+      <c r="H37" s="6">
         <v>20687</v>
       </c>
-      <c r="C37" s="6">
+      <c r="I37" s="6">
         <v>22003</v>
       </c>
-      <c r="D37" s="6">
+      <c r="J37" s="6">
         <v>23571</v>
       </c>
-      <c r="E37" s="6">
+      <c r="K37" s="6">
         <v>25487</v>
       </c>
-      <c r="F37" s="6">
+      <c r="L37" s="6">
         <v>25778</v>
       </c>
-      <c r="G37" s="6">
+      <c r="M37" s="6">
         <v>24199</v>
       </c>
-      <c r="H37" s="6">
+      <c r="N37" s="6">
         <v>25629</v>
       </c>
-      <c r="I37" s="6">
+      <c r="O37" s="6">
         <v>26147</v>
       </c>
-      <c r="J37" s="6">
+      <c r="P37" s="6">
         <v>26763</v>
       </c>
-      <c r="K37" s="6">
+      <c r="Q37" s="6">
         <v>26388</v>
       </c>
-      <c r="L37" s="6">
+      <c r="R37" s="6">
         <v>24121</v>
       </c>
-      <c r="M37" s="6">
+      <c r="S37" s="6">
         <v>22640</v>
       </c>
-      <c r="N37" s="6">
+      <c r="T37" s="6">
         <v>20603</v>
       </c>
-      <c r="O37" s="6">
+      <c r="U37" s="6">
         <v>20385</v>
       </c>
-      <c r="P37" s="6">
+      <c r="V37" s="6">
         <v>19058</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="W37" s="6">
         <v>17328</v>
       </c>
-      <c r="R37" s="6">
+      <c r="X37" s="6">
         <v>20272</v>
       </c>
-      <c r="S37" s="6">
+      <c r="Y37" s="6">
         <v>18758</v>
       </c>
-      <c r="T37" s="6">
+      <c r="Z37" s="6">
         <v>19559</v>
       </c>
-      <c r="U37" s="6">
+      <c r="AA37" s="6">
         <v>23382</v>
       </c>
-      <c r="V37" s="6">
+      <c r="AB37" s="6">
         <v>25441</v>
       </c>
-      <c r="W37" s="6">
+      <c r="AC37" s="6">
         <v>24225</v>
       </c>
-      <c r="X37" s="6">
+      <c r="AD37" s="6">
         <v>23550</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="AE37" s="6">
         <v>26412</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AF37" s="6">
         <v>30196</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6">
         <v>12160</v>
       </c>
-      <c r="C38" s="6">
+      <c r="I38" s="6">
         <v>13177</v>
       </c>
-      <c r="D38" s="6">
+      <c r="J38" s="6">
         <v>12994</v>
       </c>
-      <c r="E38" s="6">
+      <c r="K38" s="6">
         <v>13745</v>
       </c>
-      <c r="F38" s="6">
+      <c r="L38" s="6">
         <v>15881</v>
       </c>
-      <c r="G38" s="6">
+      <c r="M38" s="6">
         <v>16920</v>
       </c>
-      <c r="H38" s="6">
+      <c r="N38" s="6">
         <v>17698</v>
       </c>
-      <c r="I38" s="6">
+      <c r="O38" s="6">
         <v>18741</v>
       </c>
-      <c r="J38" s="6">
+      <c r="P38" s="6">
         <v>19311</v>
       </c>
-      <c r="K38" s="6">
+      <c r="Q38" s="6">
         <v>21526</v>
       </c>
-      <c r="L38" s="6">
+      <c r="R38" s="6">
         <v>25138</v>
       </c>
-      <c r="M38" s="6">
+      <c r="S38" s="6">
         <v>25820</v>
       </c>
-      <c r="N38" s="6">
+      <c r="T38" s="6">
         <v>26660</v>
       </c>
-      <c r="O38" s="6">
+      <c r="U38" s="6">
         <v>28535</v>
       </c>
-      <c r="P38" s="6">
+      <c r="V38" s="6">
         <v>28371</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="W38" s="6">
         <v>29734</v>
       </c>
-      <c r="R38" s="6">
+      <c r="X38" s="6">
         <v>40072</v>
       </c>
-      <c r="S38" s="6">
+      <c r="Y38" s="6">
         <v>43481</v>
       </c>
-      <c r="T38" s="6">
+      <c r="Z38" s="6">
         <v>46796</v>
       </c>
-      <c r="U38" s="6">
+      <c r="AA38" s="6">
         <v>50349</v>
       </c>
-      <c r="V38" s="6">
+      <c r="AB38" s="6">
         <v>65211</v>
       </c>
-      <c r="W38" s="6">
+      <c r="AC38" s="6">
         <v>79266</v>
       </c>
-      <c r="X38" s="6">
+      <c r="AD38" s="6">
         <v>88106</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="AE38" s="6">
         <v>108900</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AF38" s="6">
         <v>135619</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
+        <v>1673</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1813</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1681</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1428</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1312</v>
+      </c>
+      <c r="H39" s="6">
         <v>535</v>
       </c>
-      <c r="C39" s="6">
+      <c r="I39" s="6">
         <v>538</v>
       </c>
-      <c r="D39" s="6">
+      <c r="J39" s="6">
         <v>603</v>
       </c>
-      <c r="E39" s="6">
+      <c r="K39" s="6">
         <v>649</v>
       </c>
-      <c r="F39" s="6">
+      <c r="L39" s="6">
         <v>645</v>
       </c>
-      <c r="G39" s="6">
+      <c r="M39" s="6">
         <v>645</v>
       </c>
-      <c r="H39" s="6">
+      <c r="N39" s="6">
         <v>740</v>
       </c>
-      <c r="I39" s="6">
+      <c r="O39" s="6">
         <v>667</v>
       </c>
-      <c r="J39" s="6">
+      <c r="P39" s="6">
         <v>745</v>
       </c>
-      <c r="K39" s="6">
+      <c r="Q39" s="6">
         <v>912</v>
       </c>
-      <c r="L39" s="6">
+      <c r="R39" s="6">
         <v>698</v>
       </c>
-      <c r="M39" s="6">
+      <c r="S39" s="6">
         <v>611</v>
       </c>
-      <c r="N39" s="6">
+      <c r="T39" s="6">
         <v>652</v>
       </c>
-      <c r="O39" s="6">
+      <c r="U39" s="6">
         <v>714</v>
       </c>
-      <c r="P39" s="6">
+      <c r="V39" s="6">
         <v>759</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="W39" s="6">
         <v>724</v>
       </c>
-      <c r="R39" s="6">
+      <c r="X39" s="6">
         <v>707</v>
       </c>
-      <c r="S39" s="6">
+      <c r="Y39" s="6">
         <v>676</v>
       </c>
-      <c r="T39" s="6">
+      <c r="Z39" s="6">
         <v>648</v>
       </c>
-      <c r="U39" s="6">
+      <c r="AA39" s="6">
         <v>688</v>
       </c>
-      <c r="V39" s="6">
+      <c r="AB39" s="6">
         <v>625</v>
       </c>
-      <c r="W39" s="6">
+      <c r="AC39" s="6">
         <v>568</v>
       </c>
-      <c r="X39" s="6">
+      <c r="AD39" s="6">
         <v>511</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="AE39" s="6">
         <v>462</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AF39" s="6">
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
+        <v>501</v>
+      </c>
+      <c r="C40" s="5">
+        <v>699</v>
+      </c>
+      <c r="D40" s="5">
+        <v>725</v>
+      </c>
+      <c r="E40" s="5">
+        <v>751</v>
+      </c>
+      <c r="F40" s="5">
+        <v>749</v>
+      </c>
+      <c r="G40" s="5">
+        <v>801</v>
+      </c>
+      <c r="H40" s="6">
         <v>417</v>
       </c>
-      <c r="C40" s="6">
+      <c r="I40" s="6">
         <v>408</v>
       </c>
-      <c r="D40" s="6">
+      <c r="J40" s="6">
         <v>438</v>
       </c>
-      <c r="E40" s="6">
+      <c r="K40" s="6">
         <v>455</v>
       </c>
-      <c r="F40" s="6">
+      <c r="L40" s="6">
         <v>412</v>
       </c>
-      <c r="G40" s="6">
+      <c r="M40" s="6">
         <v>388</v>
       </c>
-      <c r="H40" s="6">
+      <c r="N40" s="6">
         <v>433</v>
       </c>
-      <c r="I40" s="6">
+      <c r="O40" s="6">
         <v>456</v>
       </c>
-      <c r="J40" s="6">
+      <c r="P40" s="6">
         <v>463</v>
       </c>
-      <c r="K40" s="6">
+      <c r="Q40" s="6">
         <v>461</v>
       </c>
-      <c r="L40" s="6">
+      <c r="R40" s="6">
         <v>309</v>
       </c>
-      <c r="M40" s="6">
+      <c r="S40" s="6">
         <v>275</v>
       </c>
-      <c r="N40" s="6">
+      <c r="T40" s="6">
         <v>251</v>
       </c>
-      <c r="O40" s="6">
+      <c r="U40" s="6">
         <v>242</v>
       </c>
-      <c r="P40" s="6">
+      <c r="V40" s="6">
         <v>224</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="W40" s="6">
         <v>260</v>
       </c>
-      <c r="R40" s="6">
+      <c r="X40" s="6">
         <v>252</v>
       </c>
-      <c r="S40" s="6">
+      <c r="Y40" s="6">
         <v>246</v>
       </c>
-      <c r="T40" s="6">
+      <c r="Z40" s="6">
         <v>248</v>
       </c>
-      <c r="U40" s="6">
+      <c r="AA40" s="6">
         <v>258</v>
       </c>
-      <c r="V40" s="6">
+      <c r="AB40" s="6">
         <v>277</v>
       </c>
-      <c r="W40" s="6">
+      <c r="AC40" s="6">
         <v>286</v>
       </c>
-      <c r="X40" s="6">
+      <c r="AD40" s="6">
         <v>300</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="AE40" s="6">
         <v>299</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="AF40" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
+        <v>54976</v>
+      </c>
+      <c r="C41" s="5">
+        <v>63778</v>
+      </c>
+      <c r="D41" s="5">
+        <v>61735</v>
+      </c>
+      <c r="E41" s="5">
+        <v>59622</v>
+      </c>
+      <c r="F41" s="5">
+        <v>58364</v>
+      </c>
+      <c r="G41" s="5">
+        <v>54594</v>
+      </c>
+      <c r="H41" s="6">
         <v>70362</v>
       </c>
-      <c r="C41" s="6">
+      <c r="I41" s="6">
         <v>74220</v>
       </c>
-      <c r="D41" s="6">
+      <c r="J41" s="6">
         <v>77553</v>
       </c>
-      <c r="E41" s="6">
+      <c r="K41" s="6">
         <v>83162</v>
       </c>
-      <c r="F41" s="6">
+      <c r="L41" s="6">
         <v>92893</v>
       </c>
-      <c r="G41" s="6">
+      <c r="M41" s="6">
         <v>97461</v>
       </c>
-      <c r="H41" s="6">
+      <c r="N41" s="6">
         <v>102297</v>
       </c>
-      <c r="I41" s="6">
+      <c r="O41" s="6">
         <v>106676</v>
       </c>
-      <c r="J41" s="6">
+      <c r="P41" s="6">
         <v>109581</v>
       </c>
-      <c r="K41" s="6">
+      <c r="Q41" s="6">
         <v>119270</v>
       </c>
-      <c r="L41" s="6">
+      <c r="R41" s="6">
         <v>128339</v>
       </c>
-      <c r="M41" s="6">
+      <c r="S41" s="6">
         <v>133551</v>
       </c>
-      <c r="N41" s="6">
+      <c r="T41" s="6">
         <v>131649</v>
       </c>
-      <c r="O41" s="6">
+      <c r="U41" s="6">
         <v>134745</v>
       </c>
-      <c r="P41" s="6">
+      <c r="V41" s="6">
         <v>132899</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="W41" s="6">
         <v>131755</v>
       </c>
-      <c r="R41" s="6">
+      <c r="X41" s="6">
         <v>129313</v>
       </c>
-      <c r="S41" s="6">
+      <c r="Y41" s="6">
         <v>132763</v>
       </c>
-      <c r="T41" s="6">
+      <c r="Z41" s="6">
         <v>136014</v>
       </c>
-      <c r="U41" s="6">
+      <c r="AA41" s="6">
         <v>141681</v>
       </c>
-      <c r="V41" s="6">
+      <c r="AB41" s="6">
         <v>154992</v>
       </c>
-      <c r="W41" s="6">
+      <c r="AC41" s="6">
         <v>151230</v>
       </c>
-      <c r="X41" s="6">
+      <c r="AD41" s="6">
         <v>151025</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="AE41" s="6">
         <v>147976</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AF41" s="6">
         <v>150032</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
+        <v>36178</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45674</v>
+      </c>
+      <c r="D42" s="5">
+        <v>46673</v>
+      </c>
+      <c r="E42" s="5">
+        <v>47620</v>
+      </c>
+      <c r="F42" s="5">
+        <v>49007</v>
+      </c>
+      <c r="G42" s="5">
+        <v>48533</v>
+      </c>
+      <c r="H42" s="6">
         <v>63050</v>
       </c>
-      <c r="C42" s="6">
+      <c r="I42" s="6">
         <v>67281</v>
       </c>
-      <c r="D42" s="6">
+      <c r="J42" s="6">
         <v>73024</v>
       </c>
-      <c r="E42" s="6">
+      <c r="K42" s="6">
         <v>80114</v>
       </c>
-      <c r="F42" s="6">
+      <c r="L42" s="6">
         <v>91026</v>
       </c>
-      <c r="G42" s="6">
+      <c r="M42" s="6">
         <v>97959</v>
       </c>
-      <c r="H42" s="6">
+      <c r="N42" s="6">
         <v>106589</v>
       </c>
-      <c r="I42" s="6">
+      <c r="O42" s="6">
         <v>115426</v>
       </c>
-      <c r="J42" s="6">
+      <c r="P42" s="6">
         <v>122574</v>
       </c>
-      <c r="K42" s="6">
+      <c r="Q42" s="6">
         <v>138329</v>
       </c>
-      <c r="L42" s="6">
+      <c r="R42" s="6">
         <v>162510</v>
       </c>
-      <c r="M42" s="6">
+      <c r="S42" s="6">
         <v>171358</v>
       </c>
-      <c r="N42" s="6">
+      <c r="T42" s="6">
         <v>177930</v>
       </c>
-      <c r="O42" s="6">
+      <c r="U42" s="6">
         <v>192910</v>
       </c>
-      <c r="P42" s="6">
+      <c r="V42" s="6">
         <v>195977</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="W42" s="6">
         <v>216196</v>
       </c>
-      <c r="R42" s="6">
+      <c r="X42" s="6">
         <v>215487</v>
       </c>
-      <c r="S42" s="6">
+      <c r="Y42" s="6">
         <v>241024</v>
       </c>
-      <c r="T42" s="6">
+      <c r="Z42" s="6">
         <v>262168</v>
       </c>
-      <c r="U42" s="6">
+      <c r="AA42" s="6">
         <v>290937</v>
       </c>
-      <c r="V42" s="6">
+      <c r="AB42" s="6">
         <v>318183</v>
       </c>
-      <c r="W42" s="6">
+      <c r="AC42" s="6">
         <v>338145</v>
       </c>
-      <c r="X42" s="6">
+      <c r="AD42" s="6">
         <v>376087</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="AE42" s="6">
         <v>386349</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AF42" s="6">
         <v>397042</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6">
         <v>18608</v>
       </c>
-      <c r="C43" s="6">
+      <c r="I43" s="6">
         <v>18240</v>
       </c>
-      <c r="D43" s="6">
+      <c r="J43" s="6">
         <v>17871</v>
       </c>
-      <c r="E43" s="6">
+      <c r="K43" s="6">
         <v>17503</v>
       </c>
-      <c r="F43" s="6">
+      <c r="L43" s="6">
         <v>17062</v>
       </c>
-      <c r="G43" s="6">
+      <c r="M43" s="6">
         <v>17515</v>
       </c>
-      <c r="H43" s="6">
+      <c r="N43" s="6">
         <v>17970</v>
       </c>
-      <c r="I43" s="6">
+      <c r="O43" s="6">
         <v>18425</v>
       </c>
-      <c r="J43" s="6">
+      <c r="P43" s="6">
         <v>18880</v>
       </c>
-      <c r="K43" s="6">
+      <c r="Q43" s="6">
         <v>19348</v>
       </c>
-      <c r="L43" s="6">
+      <c r="R43" s="6">
         <v>18202</v>
       </c>
-      <c r="M43" s="6">
+      <c r="S43" s="6">
         <v>17057</v>
       </c>
-      <c r="N43" s="6">
+      <c r="T43" s="6">
         <v>15911</v>
       </c>
-      <c r="O43" s="6">
+      <c r="U43" s="6">
         <v>14766</v>
       </c>
-      <c r="P43" s="6">
+      <c r="V43" s="6">
         <v>13620</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="W43" s="6">
         <v>13092</v>
       </c>
-      <c r="R43" s="6">
+      <c r="X43" s="6">
         <v>12564</v>
       </c>
-      <c r="S43" s="6">
+      <c r="Y43" s="6">
         <v>12036</v>
       </c>
-      <c r="T43" s="6">
+      <c r="Z43" s="6">
         <v>11508</v>
       </c>
-      <c r="U43" s="6">
+      <c r="AA43" s="6">
         <v>10980</v>
       </c>
-      <c r="V43" s="6">
+      <c r="AB43" s="6">
         <v>11235</v>
       </c>
-      <c r="W43" s="6">
+      <c r="AC43" s="6">
         <v>11491</v>
       </c>
-      <c r="X43" s="6">
+      <c r="AD43" s="6">
         <v>11746</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="AE43" s="6">
         <v>12002</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="AF43" s="6">
         <v>12257</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
+        <v>1857</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2059</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2046</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2039</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1984</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1869</v>
+      </c>
+      <c r="H44" s="6">
         <v>2124</v>
       </c>
-      <c r="C44" s="6">
+      <c r="I44" s="6">
         <v>2125</v>
       </c>
-      <c r="D44" s="6">
+      <c r="J44" s="6">
         <v>2053</v>
       </c>
-      <c r="E44" s="6">
+      <c r="K44" s="6">
         <v>2188</v>
       </c>
-      <c r="F44" s="6">
+      <c r="L44" s="6">
         <v>2229</v>
       </c>
-      <c r="G44" s="6">
+      <c r="M44" s="6">
         <v>2196</v>
       </c>
-      <c r="H44" s="6">
+      <c r="N44" s="6">
         <v>2198</v>
       </c>
-      <c r="I44" s="6">
+      <c r="O44" s="6">
         <v>2205</v>
       </c>
-      <c r="J44" s="6">
+      <c r="P44" s="6">
         <v>2058</v>
       </c>
-      <c r="K44" s="6">
+      <c r="Q44" s="6">
         <v>2013</v>
       </c>
-      <c r="L44" s="6">
+      <c r="R44" s="6">
         <v>3030</v>
       </c>
-      <c r="M44" s="6">
+      <c r="S44" s="6">
         <v>2879</v>
       </c>
-      <c r="N44" s="6">
+      <c r="T44" s="6">
         <v>2330</v>
       </c>
-      <c r="O44" s="6">
+      <c r="U44" s="6">
         <v>2166</v>
       </c>
-      <c r="P44" s="6">
+      <c r="V44" s="6">
         <v>2461</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="W44" s="6">
         <v>1703</v>
       </c>
-      <c r="R44" s="6">
+      <c r="X44" s="6">
         <v>1741</v>
       </c>
-      <c r="S44" s="6">
+      <c r="Y44" s="6">
         <v>1453</v>
       </c>
-      <c r="T44" s="6">
+      <c r="Z44" s="6">
         <v>1370</v>
       </c>
-      <c r="U44" s="6">
+      <c r="AA44" s="6">
         <v>1476</v>
       </c>
-      <c r="V44" s="6">
+      <c r="AB44" s="6">
         <v>1493</v>
       </c>
-      <c r="W44" s="6">
+      <c r="AC44" s="6">
         <v>1556</v>
       </c>
-      <c r="X44" s="6">
+      <c r="AD44" s="6">
         <v>1552</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="AE44" s="6">
         <v>1723</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="AF44" s="6">
         <v>1737</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
+        <v>16582</v>
+      </c>
+      <c r="C45" s="5">
+        <v>17005</v>
+      </c>
+      <c r="D45" s="5">
+        <v>17232</v>
+      </c>
+      <c r="E45" s="5">
+        <v>16106</v>
+      </c>
+      <c r="F45" s="5">
+        <v>14705</v>
+      </c>
+      <c r="G45" s="5">
+        <v>17990</v>
+      </c>
+      <c r="H45" s="6">
         <v>22648</v>
       </c>
-      <c r="C45" s="6">
+      <c r="I45" s="6">
         <v>24401</v>
       </c>
-      <c r="D45" s="6">
+      <c r="J45" s="6">
         <v>26498</v>
       </c>
-      <c r="E45" s="6">
+      <c r="K45" s="6">
         <v>31372</v>
       </c>
-      <c r="F45" s="6">
+      <c r="L45" s="6">
         <v>37617</v>
       </c>
-      <c r="G45" s="6">
+      <c r="M45" s="6">
         <v>34955</v>
       </c>
-      <c r="H45" s="6">
+      <c r="N45" s="6">
         <v>38422</v>
       </c>
-      <c r="I45" s="6">
+      <c r="O45" s="6">
         <v>39999</v>
       </c>
-      <c r="J45" s="6">
+      <c r="P45" s="6">
         <v>40088</v>
       </c>
-      <c r="K45" s="6">
+      <c r="Q45" s="6">
         <v>43723</v>
       </c>
-      <c r="L45" s="6">
+      <c r="R45" s="6">
         <v>45413</v>
       </c>
-      <c r="M45" s="6">
+      <c r="S45" s="6">
         <v>45587</v>
       </c>
-      <c r="N45" s="6">
+      <c r="T45" s="6">
         <v>44724</v>
       </c>
-      <c r="O45" s="6">
+      <c r="U45" s="6">
         <v>46966</v>
       </c>
-      <c r="P45" s="6">
+      <c r="V45" s="6">
         <v>55782</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="W45" s="6">
         <v>59858</v>
       </c>
-      <c r="R45" s="6">
+      <c r="X45" s="6">
         <v>61227</v>
       </c>
-      <c r="S45" s="6">
+      <c r="Y45" s="6">
         <v>68717</v>
       </c>
-      <c r="T45" s="6">
+      <c r="Z45" s="6">
         <v>67038</v>
       </c>
-      <c r="U45" s="6">
+      <c r="AA45" s="6">
         <v>63036</v>
       </c>
-      <c r="V45" s="6">
+      <c r="AB45" s="6">
         <v>59517</v>
       </c>
-      <c r="W45" s="6">
+      <c r="AC45" s="6">
         <v>58311</v>
       </c>
-      <c r="X45" s="6">
+      <c r="AD45" s="6">
         <v>55966</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="AE45" s="6">
         <v>55862</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="AF45" s="6">
         <v>57754</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
+        <v>106658</v>
+      </c>
+      <c r="C46" s="5">
+        <v>116750</v>
+      </c>
+      <c r="D46" s="5">
+        <v>121053</v>
+      </c>
+      <c r="E46" s="5">
+        <v>118415</v>
+      </c>
+      <c r="F46" s="5">
+        <v>113956</v>
+      </c>
+      <c r="G46" s="5">
+        <v>135951</v>
+      </c>
+      <c r="H46" s="6">
         <v>199325</v>
       </c>
-      <c r="C46" s="6">
+      <c r="I46" s="6">
         <v>194905</v>
       </c>
-      <c r="D46" s="6">
+      <c r="J46" s="6">
         <v>210368</v>
       </c>
-      <c r="E46" s="6">
+      <c r="K46" s="6">
         <v>240440</v>
       </c>
-      <c r="F46" s="6">
+      <c r="L46" s="6">
         <v>356885</v>
       </c>
-      <c r="G46" s="6">
+      <c r="M46" s="6">
         <v>372280</v>
       </c>
-      <c r="H46" s="6">
+      <c r="N46" s="6">
         <v>386395</v>
       </c>
-      <c r="I46" s="6">
+      <c r="O46" s="6">
         <v>414919</v>
       </c>
-      <c r="J46" s="6">
+      <c r="P46" s="6">
         <v>433890</v>
       </c>
-      <c r="K46" s="6">
+      <c r="Q46" s="6">
         <v>449527</v>
       </c>
-      <c r="L46" s="6">
+      <c r="R46" s="6">
         <v>558387</v>
       </c>
-      <c r="M46" s="6">
+      <c r="S46" s="6">
         <v>552535</v>
       </c>
-      <c r="N46" s="6">
+      <c r="T46" s="6">
         <v>589880</v>
       </c>
-      <c r="O46" s="6">
+      <c r="U46" s="6">
         <v>619698</v>
       </c>
-      <c r="P46" s="6">
+      <c r="V46" s="6">
         <v>861861</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="W46" s="6">
         <v>987833</v>
       </c>
-      <c r="R46" s="6">
+      <c r="X46" s="6">
         <v>1067425</v>
       </c>
-      <c r="S46" s="6">
+      <c r="Y46" s="6">
         <v>1147865</v>
       </c>
-      <c r="T46" s="6">
+      <c r="Z46" s="6">
         <v>1266995</v>
       </c>
-      <c r="U46" s="6">
+      <c r="AA46" s="6">
         <v>1310929</v>
       </c>
-      <c r="V46" s="6">
+      <c r="AB46" s="6">
         <v>1344938</v>
       </c>
-      <c r="W46" s="6">
+      <c r="AC46" s="6">
         <v>1394137</v>
       </c>
-      <c r="X46" s="6">
+      <c r="AD46" s="6">
         <v>1478728</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="AE46" s="6">
         <v>1481186</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="AF46" s="6">
         <v>1601033</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
+        <v>4151</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4453</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4417</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4190</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3827</v>
+      </c>
+      <c r="G47" s="5">
+        <v>4480</v>
+      </c>
+      <c r="H47" s="6">
         <v>6108</v>
       </c>
-      <c r="C47" s="6">
+      <c r="I47" s="6">
         <v>5991</v>
       </c>
-      <c r="D47" s="6">
+      <c r="J47" s="6">
         <v>6218</v>
       </c>
-      <c r="E47" s="6">
+      <c r="K47" s="6">
         <v>6155</v>
       </c>
-      <c r="F47" s="6">
+      <c r="L47" s="6">
         <v>5696</v>
       </c>
-      <c r="G47" s="6">
+      <c r="M47" s="6">
         <v>4566</v>
       </c>
-      <c r="H47" s="6">
+      <c r="N47" s="6">
         <v>7749</v>
       </c>
-      <c r="I47" s="6">
+      <c r="O47" s="6">
         <v>7454</v>
       </c>
-      <c r="J47" s="6">
+      <c r="P47" s="6">
         <v>6376</v>
       </c>
-      <c r="K47" s="6">
+      <c r="Q47" s="6">
         <v>6169</v>
       </c>
-      <c r="L47" s="6">
+      <c r="R47" s="6">
         <v>5882</v>
       </c>
-      <c r="M47" s="6">
+      <c r="S47" s="6">
         <v>5729</v>
       </c>
-      <c r="N47" s="6">
+      <c r="T47" s="6">
         <v>5736</v>
       </c>
-      <c r="O47" s="6">
+      <c r="U47" s="6">
         <v>6263</v>
       </c>
-      <c r="P47" s="6">
+      <c r="V47" s="6">
         <v>6317</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="W47" s="6">
         <v>6132</v>
       </c>
-      <c r="R47" s="6">
+      <c r="X47" s="6">
         <v>5808</v>
       </c>
-      <c r="S47" s="6">
+      <c r="Y47" s="6">
         <v>6027</v>
       </c>
-      <c r="T47" s="6">
+      <c r="Z47" s="6">
         <v>5982</v>
       </c>
-      <c r="U47" s="6">
+      <c r="AA47" s="6">
         <v>6110</v>
       </c>
-      <c r="V47" s="6">
+      <c r="AB47" s="6">
         <v>6763</v>
       </c>
-      <c r="W47" s="6">
+      <c r="AC47" s="6">
         <v>6530</v>
       </c>
-      <c r="X47" s="6">
+      <c r="AD47" s="6">
         <v>6552</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="AE47" s="6">
         <v>6256</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AF47" s="6">
         <v>6760</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="6" t="s">
         <v>29</v>
       </c>
@@ -4431,138 +5032,168 @@
       <c r="Z48" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6">
         <v>422224</v>
       </c>
-      <c r="C49" s="6">
+      <c r="I49" s="6">
         <v>429588</v>
       </c>
-      <c r="D49" s="6">
+      <c r="J49" s="6">
         <v>457554</v>
       </c>
-      <c r="E49" s="6">
+      <c r="K49" s="6">
         <v>507076</v>
       </c>
-      <c r="F49" s="6">
+      <c r="L49" s="6">
         <v>652013</v>
       </c>
-      <c r="G49" s="6">
+      <c r="M49" s="6">
         <v>674789</v>
       </c>
-      <c r="H49" s="6">
+      <c r="N49" s="6">
         <v>712228</v>
       </c>
-      <c r="I49" s="6">
+      <c r="O49" s="6">
         <v>757089</v>
       </c>
-      <c r="J49" s="6">
+      <c r="P49" s="6">
         <v>786277</v>
       </c>
-      <c r="K49" s="6">
+      <c r="Q49" s="6">
         <v>833068</v>
       </c>
-      <c r="L49" s="6">
+      <c r="R49" s="6">
         <v>977402</v>
       </c>
-      <c r="M49" s="6">
+      <c r="S49" s="6">
         <v>983242</v>
       </c>
-      <c r="N49" s="6">
+      <c r="T49" s="6">
         <v>1021566</v>
       </c>
-      <c r="O49" s="6">
+      <c r="U49" s="6">
         <v>1073096</v>
       </c>
-      <c r="P49" s="6">
+      <c r="V49" s="6">
         <v>1323301</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="W49" s="6">
         <v>1470586</v>
       </c>
-      <c r="R49" s="6">
+      <c r="X49" s="6">
         <v>1560452</v>
       </c>
-      <c r="S49" s="6">
+      <c r="Y49" s="6">
         <v>1678085</v>
       </c>
-      <c r="T49" s="6">
+      <c r="Z49" s="6">
         <v>1823373</v>
       </c>
-      <c r="U49" s="6">
+      <c r="AA49" s="6">
         <v>1904589</v>
       </c>
-      <c r="V49" s="6">
+      <c r="AB49" s="6">
         <v>1992987</v>
       </c>
-      <c r="W49" s="6">
+      <c r="AC49" s="6">
         <v>2070086</v>
       </c>
-      <c r="X49" s="6">
+      <c r="AD49" s="6">
         <v>2198554</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="AE49" s="6">
         <v>2231888</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AF49" s="6">
         <v>2398335</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="14"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="16"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="6">
-        <v>2</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6">
-        <v>2</v>
-      </c>
-      <c r="F51" s="6">
-        <v>2</v>
-      </c>
-      <c r="G51" s="6">
-        <v>2</v>
+      <c r="B51" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2.2999999999999998</v>
       </c>
       <c r="H51" s="6">
         <v>2</v>
@@ -4580,22 +5211,22 @@
         <v>2</v>
       </c>
       <c r="M51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51" s="6">
         <v>1</v>
@@ -4621,230 +5252,260 @@
       <c r="Z51" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6">
         <v>652</v>
       </c>
-      <c r="C52" s="6">
+      <c r="I52" s="6">
         <v>652</v>
       </c>
-      <c r="D52" s="6">
+      <c r="J52" s="6">
         <v>652</v>
       </c>
-      <c r="E52" s="6">
+      <c r="K52" s="6">
         <v>652</v>
       </c>
-      <c r="F52" s="6">
+      <c r="L52" s="6">
         <v>712</v>
       </c>
-      <c r="G52" s="6">
+      <c r="M52" s="6">
         <v>637</v>
       </c>
-      <c r="H52" s="6">
+      <c r="N52" s="6">
         <v>633</v>
       </c>
-      <c r="I52" s="6">
+      <c r="O52" s="6">
         <v>720</v>
       </c>
-      <c r="J52" s="6">
+      <c r="P52" s="6">
         <v>723</v>
       </c>
-      <c r="K52" s="6">
+      <c r="Q52" s="6">
         <v>7</v>
       </c>
-      <c r="L52" s="6">
+      <c r="R52" s="6">
         <v>8</v>
       </c>
-      <c r="M52" s="6">
+      <c r="S52" s="6">
         <v>10</v>
       </c>
-      <c r="N52" s="6">
+      <c r="T52" s="6">
         <v>7</v>
       </c>
-      <c r="O52" s="6">
+      <c r="U52" s="6">
         <v>6</v>
       </c>
-      <c r="P52" s="6">
+      <c r="V52" s="6">
         <v>4</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="W52" s="6">
         <v>4</v>
       </c>
-      <c r="R52" s="6">
+      <c r="X52" s="6">
         <v>4</v>
       </c>
-      <c r="S52" s="6">
+      <c r="Y52" s="6">
         <v>4</v>
       </c>
-      <c r="T52" s="6">
+      <c r="Z52" s="6">
         <v>4</v>
       </c>
-      <c r="U52" s="6">
+      <c r="AA52" s="6">
         <v>5</v>
       </c>
-      <c r="V52" s="6">
+      <c r="AB52" s="6">
         <v>5</v>
       </c>
-      <c r="W52" s="6">
+      <c r="AC52" s="6">
         <v>5</v>
       </c>
-      <c r="X52" s="6">
+      <c r="AD52" s="6">
         <v>5</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="AE52" s="6">
         <v>5</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AF52" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
+        <v>61</v>
+      </c>
+      <c r="C53" s="5">
+        <v>62</v>
+      </c>
+      <c r="D53" s="5">
+        <v>68</v>
+      </c>
+      <c r="E53" s="5">
+        <v>261</v>
+      </c>
+      <c r="F53" s="5">
+        <v>253</v>
+      </c>
+      <c r="G53" s="5">
+        <v>243</v>
+      </c>
+      <c r="H53" s="6">
         <v>209</v>
       </c>
-      <c r="C53" s="6">
+      <c r="I53" s="6">
         <v>33</v>
       </c>
-      <c r="D53" s="6">
+      <c r="J53" s="6">
         <v>233</v>
       </c>
-      <c r="E53" s="6">
+      <c r="K53" s="6">
         <v>376</v>
       </c>
-      <c r="F53" s="6">
+      <c r="L53" s="6">
         <v>453</v>
       </c>
-      <c r="G53" s="6">
+      <c r="M53" s="6">
         <v>615</v>
       </c>
-      <c r="H53" s="6">
+      <c r="N53" s="6">
         <v>602</v>
       </c>
-      <c r="I53" s="6">
+      <c r="O53" s="6">
         <v>671</v>
       </c>
-      <c r="J53" s="6">
+      <c r="P53" s="6">
         <v>655</v>
       </c>
-      <c r="K53" s="6">
+      <c r="Q53" s="6">
         <v>3929</v>
       </c>
-      <c r="L53" s="6">
+      <c r="R53" s="6">
         <v>3927</v>
       </c>
-      <c r="M53" s="6">
+      <c r="S53" s="6">
         <v>3909</v>
       </c>
-      <c r="N53" s="6">
+      <c r="T53" s="6">
         <v>3894</v>
       </c>
-      <c r="O53" s="6">
+      <c r="U53" s="6">
         <v>3987</v>
       </c>
-      <c r="P53" s="6">
+      <c r="V53" s="6">
         <v>3989</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="W53" s="6">
         <v>3982</v>
       </c>
-      <c r="R53" s="6">
+      <c r="X53" s="6">
         <v>3962</v>
       </c>
-      <c r="S53" s="6">
+      <c r="Y53" s="6">
         <v>3960</v>
       </c>
-      <c r="T53" s="6">
+      <c r="Z53" s="6">
         <v>3950</v>
       </c>
-      <c r="U53" s="6">
+      <c r="AA53" s="6">
         <v>3995</v>
       </c>
-      <c r="V53" s="6">
+      <c r="AB53" s="6">
         <v>4052</v>
       </c>
-      <c r="W53" s="6">
+      <c r="AC53" s="6">
         <v>3975</v>
       </c>
-      <c r="X53" s="6">
+      <c r="AD53" s="6">
         <v>3994</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="AE53" s="6">
         <v>3992</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="AF53" s="6">
         <v>4013</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6">
         <v>134</v>
       </c>
-      <c r="C54" s="6">
+      <c r="I54" s="6">
         <v>134</v>
       </c>
-      <c r="D54" s="6">
+      <c r="J54" s="6">
         <v>134</v>
       </c>
-      <c r="E54" s="6">
+      <c r="K54" s="6">
         <v>134</v>
       </c>
-      <c r="F54" s="6">
+      <c r="L54" s="6">
         <v>144</v>
       </c>
-      <c r="G54" s="6">
+      <c r="M54" s="6">
         <v>125</v>
       </c>
-      <c r="H54" s="6">
+      <c r="N54" s="6">
         <v>107</v>
       </c>
-      <c r="I54" s="6">
+      <c r="O54" s="6">
         <v>125</v>
       </c>
-      <c r="J54" s="6">
+      <c r="P54" s="6">
         <v>107</v>
       </c>
-      <c r="K54" s="6">
+      <c r="Q54" s="6">
         <v>27</v>
       </c>
-      <c r="L54" s="6">
+      <c r="R54" s="6">
         <v>27</v>
       </c>
-      <c r="M54" s="6">
+      <c r="S54" s="6">
         <v>43</v>
       </c>
-      <c r="N54" s="6">
+      <c r="T54" s="6">
         <v>60</v>
       </c>
-      <c r="O54" s="6">
+      <c r="U54" s="6">
         <v>75</v>
-      </c>
-      <c r="P54" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>90</v>
-      </c>
-      <c r="R54" s="6">
-        <v>90</v>
-      </c>
-      <c r="S54" s="6">
-        <v>90</v>
-      </c>
-      <c r="T54" s="6">
-        <v>90</v>
-      </c>
-      <c r="U54" s="6">
-        <v>90</v>
       </c>
       <c r="V54" s="6">
         <v>90</v>
@@ -4861,269 +5522,299 @@
       <c r="Z54" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54" s="6">
+        <v>90</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>90</v>
+      </c>
+      <c r="AC54" s="6">
+        <v>90</v>
+      </c>
+      <c r="AD54" s="6">
+        <v>90</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>90</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6">
         <v>998</v>
       </c>
-      <c r="C55" s="6">
+      <c r="I55" s="6">
         <v>821</v>
       </c>
-      <c r="D55" s="6">
+      <c r="J55" s="6">
         <v>1020</v>
       </c>
-      <c r="E55" s="6">
+      <c r="K55" s="6">
         <v>1164</v>
       </c>
-      <c r="F55" s="6">
+      <c r="L55" s="6">
         <v>1311</v>
       </c>
-      <c r="G55" s="6">
+      <c r="M55" s="6">
         <v>1379</v>
       </c>
-      <c r="H55" s="6">
+      <c r="N55" s="6">
         <v>1344</v>
       </c>
-      <c r="I55" s="6">
+      <c r="O55" s="6">
         <v>1517</v>
       </c>
-      <c r="J55" s="6">
+      <c r="P55" s="6">
         <v>1487</v>
       </c>
-      <c r="K55" s="6">
+      <c r="Q55" s="6">
         <v>3964</v>
       </c>
-      <c r="L55" s="6">
+      <c r="R55" s="6">
         <v>3964</v>
       </c>
-      <c r="M55" s="6">
+      <c r="S55" s="6">
         <v>3963</v>
       </c>
-      <c r="N55" s="6">
+      <c r="T55" s="6">
         <v>3962</v>
       </c>
-      <c r="O55" s="6">
+      <c r="U55" s="6">
         <v>4069</v>
       </c>
-      <c r="P55" s="6">
+      <c r="V55" s="6">
         <v>4085</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="W55" s="6">
         <v>4077</v>
       </c>
-      <c r="R55" s="6">
+      <c r="X55" s="6">
         <v>4057</v>
       </c>
-      <c r="S55" s="6">
+      <c r="Y55" s="6">
         <v>4055</v>
       </c>
-      <c r="T55" s="6">
+      <c r="Z55" s="6">
         <v>4045</v>
       </c>
-      <c r="U55" s="6">
+      <c r="AA55" s="6">
         <v>4091</v>
       </c>
-      <c r="V55" s="6">
+      <c r="AB55" s="6">
         <v>4148</v>
       </c>
-      <c r="W55" s="6">
+      <c r="AC55" s="6">
         <v>4071</v>
       </c>
-      <c r="X55" s="6">
+      <c r="AD55" s="6">
         <v>4090</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="AE55" s="6">
         <v>4088</v>
       </c>
-      <c r="Z55" s="6">
+      <c r="AF55" s="6">
         <v>4109</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="14"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="16"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="6">
+      <c r="H57" s="6">
         <v>7</v>
       </c>
-      <c r="C57" s="6">
+      <c r="I57" s="6">
         <v>7</v>
       </c>
-      <c r="D57" s="6">
+      <c r="J57" s="6">
         <v>8</v>
       </c>
-      <c r="E57" s="6">
+      <c r="K57" s="6">
         <v>8</v>
       </c>
-      <c r="F57" s="6">
+      <c r="L57" s="6">
         <v>8</v>
       </c>
-      <c r="G57" s="6">
+      <c r="M57" s="6">
         <v>8</v>
       </c>
-      <c r="H57" s="6">
+      <c r="N57" s="6">
         <v>8</v>
       </c>
-      <c r="I57" s="6">
+      <c r="O57" s="6">
         <v>9</v>
       </c>
-      <c r="J57" s="6">
+      <c r="P57" s="6">
         <v>9</v>
       </c>
-      <c r="K57" s="6">
+      <c r="Q57" s="6">
         <v>9</v>
       </c>
-      <c r="L57" s="6">
+      <c r="R57" s="6">
         <v>9</v>
       </c>
-      <c r="M57" s="6">
+      <c r="S57" s="6">
         <v>10</v>
       </c>
-      <c r="N57" s="6">
+      <c r="T57" s="6">
         <v>10</v>
       </c>
-      <c r="O57" s="6">
+      <c r="U57" s="6">
         <v>10</v>
       </c>
-      <c r="P57" s="6">
+      <c r="V57" s="6">
         <v>12</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="W57" s="6">
         <v>12</v>
       </c>
-      <c r="R57" s="6">
+      <c r="X57" s="6">
         <v>13</v>
       </c>
-      <c r="S57" s="6">
+      <c r="Y57" s="6">
         <v>14</v>
-      </c>
-      <c r="T57" s="6">
-        <v>13</v>
-      </c>
-      <c r="U57" s="6">
-        <v>15</v>
-      </c>
-      <c r="V57" s="6">
-        <v>15</v>
-      </c>
-      <c r="W57" s="6">
-        <v>15</v>
-      </c>
-      <c r="X57" s="6">
-        <v>15</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>15</v>
       </c>
       <c r="Z57" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB57" s="6">
+        <v>15</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>15</v>
+      </c>
+      <c r="AD57" s="6">
+        <v>15</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>15</v>
+      </c>
+      <c r="AF57" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
+        <v>180</v>
+      </c>
+      <c r="C58" s="5">
+        <v>187</v>
+      </c>
+      <c r="D58" s="5">
+        <v>192</v>
+      </c>
+      <c r="E58" s="5">
+        <v>203</v>
+      </c>
+      <c r="F58" s="5">
+        <v>203</v>
+      </c>
+      <c r="G58" s="5">
+        <v>193</v>
+      </c>
+      <c r="H58" s="6">
         <v>212</v>
       </c>
-      <c r="C58" s="6">
+      <c r="I58" s="6">
         <v>211</v>
       </c>
-      <c r="D58" s="6">
+      <c r="J58" s="6">
         <v>203</v>
       </c>
-      <c r="E58" s="6">
+      <c r="K58" s="6">
         <v>200</v>
       </c>
-      <c r="F58" s="6">
+      <c r="L58" s="6">
         <v>409</v>
       </c>
-      <c r="G58" s="6">
+      <c r="M58" s="6">
         <v>232</v>
       </c>
-      <c r="H58" s="6">
+      <c r="N58" s="6">
         <v>220</v>
       </c>
-      <c r="I58" s="6">
+      <c r="O58" s="6">
         <v>168</v>
       </c>
-      <c r="J58" s="6">
+      <c r="P58" s="6">
         <v>200</v>
       </c>
-      <c r="K58" s="6">
+      <c r="Q58" s="6">
         <v>197</v>
       </c>
-      <c r="L58" s="6">
+      <c r="R58" s="6">
         <v>213</v>
       </c>
-      <c r="M58" s="6">
+      <c r="S58" s="6">
         <v>196</v>
       </c>
-      <c r="N58" s="6">
+      <c r="T58" s="6">
         <v>311</v>
       </c>
-      <c r="O58" s="6">
+      <c r="U58" s="6">
         <v>802</v>
       </c>
-      <c r="P58" s="6">
+      <c r="V58" s="6">
         <v>794</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="W58" s="6">
         <v>808</v>
       </c>
-      <c r="R58" s="6">
+      <c r="X58" s="6">
         <v>745</v>
-      </c>
-      <c r="S58" s="6">
-        <v>745</v>
-      </c>
-      <c r="T58" s="6">
-        <v>745</v>
-      </c>
-      <c r="U58" s="6">
-        <v>730</v>
-      </c>
-      <c r="V58" s="6">
-        <v>744</v>
-      </c>
-      <c r="W58" s="6">
-        <v>744</v>
-      </c>
-      <c r="X58" s="6">
-        <v>744</v>
       </c>
       <c r="Y58" s="6">
         <v>745</v>
@@ -5131,141 +5822,165 @@
       <c r="Z58" s="6">
         <v>745</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA58" s="6">
+        <v>730</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>744</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>744</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>744</v>
+      </c>
+      <c r="AE58" s="6">
+        <v>745</v>
+      </c>
+      <c r="AF58" s="6">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
+        <v>184986</v>
+      </c>
+      <c r="C59" s="5">
+        <v>214324</v>
+      </c>
+      <c r="D59" s="5">
+        <v>221925</v>
+      </c>
+      <c r="E59" s="5">
+        <v>220706</v>
+      </c>
+      <c r="F59" s="5">
+        <v>225779</v>
+      </c>
+      <c r="G59" s="5">
+        <v>237960</v>
+      </c>
+      <c r="H59" s="6">
         <v>259941</v>
       </c>
-      <c r="C59" s="6">
+      <c r="I59" s="6">
         <v>250730</v>
       </c>
-      <c r="D59" s="6">
+      <c r="J59" s="6">
         <v>243925</v>
       </c>
-      <c r="E59" s="6">
+      <c r="K59" s="6">
         <v>238994</v>
       </c>
-      <c r="F59" s="6">
+      <c r="L59" s="6">
         <v>246467</v>
       </c>
-      <c r="G59" s="6">
+      <c r="M59" s="6">
         <v>231810</v>
       </c>
-      <c r="H59" s="6">
+      <c r="N59" s="6">
         <v>250989</v>
       </c>
-      <c r="I59" s="6">
+      <c r="O59" s="6">
         <v>248108</v>
       </c>
-      <c r="J59" s="6">
+      <c r="P59" s="6">
         <v>245085</v>
       </c>
-      <c r="K59" s="6">
+      <c r="Q59" s="6">
         <v>249027</v>
       </c>
-      <c r="L59" s="6">
+      <c r="R59" s="6">
         <v>242488</v>
       </c>
-      <c r="M59" s="6">
+      <c r="S59" s="6">
         <v>243544</v>
       </c>
-      <c r="N59" s="6">
+      <c r="T59" s="6">
         <v>237530</v>
       </c>
-      <c r="O59" s="6">
+      <c r="U59" s="6">
         <v>244671</v>
       </c>
-      <c r="P59" s="6">
+      <c r="V59" s="6">
         <v>257523</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="W59" s="6">
         <v>244875</v>
       </c>
-      <c r="R59" s="6">
+      <c r="X59" s="6">
         <v>235526</v>
       </c>
-      <c r="S59" s="6">
+      <c r="Y59" s="6">
         <v>234497</v>
       </c>
-      <c r="T59" s="6">
+      <c r="Z59" s="6">
         <v>230914</v>
       </c>
-      <c r="U59" s="6">
+      <c r="AA59" s="6">
         <v>225345</v>
       </c>
-      <c r="V59" s="6">
+      <c r="AB59" s="6">
         <v>209751</v>
       </c>
-      <c r="W59" s="6">
+      <c r="AC59" s="6">
         <v>199769</v>
       </c>
-      <c r="X59" s="6">
+      <c r="AD59" s="6">
         <v>195952</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="AE59" s="6">
         <v>188807</v>
       </c>
-      <c r="Z59" s="6">
+      <c r="AF59" s="6">
         <v>189081</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="6">
         <v>10</v>
       </c>
-      <c r="E60" s="6">
+      <c r="K60" s="6">
         <v>17</v>
       </c>
-      <c r="F60" s="6">
+      <c r="L60" s="6">
         <v>19</v>
       </c>
-      <c r="G60" s="6">
+      <c r="M60" s="6">
         <v>16</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="6">
+      <c r="N60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="6">
         <v>2</v>
       </c>
-      <c r="L60" s="6">
+      <c r="R60" s="6">
         <v>2</v>
-      </c>
-      <c r="M60" s="6">
-        <v>1</v>
-      </c>
-      <c r="N60" s="6">
-        <v>1</v>
-      </c>
-      <c r="O60" s="6">
-        <v>1</v>
-      </c>
-      <c r="P60" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>1</v>
-      </c>
-      <c r="R60" s="6">
-        <v>1</v>
       </c>
       <c r="S60" s="6">
         <v>1</v>
@@ -5282,38 +5997,44 @@
       <c r="W60" s="6">
         <v>1</v>
       </c>
-      <c r="X60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z60" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X60" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF60" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="6" t="s">
         <v>29</v>
       </c>
@@ -5371,349 +6092,415 @@
       <c r="Z61" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF61" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="6">
         <v>36322</v>
       </c>
-      <c r="C62" s="6">
+      <c r="I62" s="6">
         <v>35560</v>
       </c>
-      <c r="D62" s="6">
+      <c r="J62" s="6">
         <v>34980</v>
       </c>
-      <c r="E62" s="6">
+      <c r="K62" s="6">
         <v>34945</v>
       </c>
-      <c r="F62" s="6">
+      <c r="L62" s="6">
         <v>34333</v>
       </c>
-      <c r="G62" s="6">
+      <c r="M62" s="6">
         <v>33962</v>
       </c>
-      <c r="H62" s="6">
+      <c r="N62" s="6">
         <v>33505</v>
       </c>
-      <c r="I62" s="6">
+      <c r="O62" s="6">
         <v>33763</v>
       </c>
-      <c r="J62" s="6">
+      <c r="P62" s="6">
         <v>32966</v>
       </c>
-      <c r="K62" s="6">
+      <c r="Q62" s="6">
         <v>33472</v>
       </c>
-      <c r="L62" s="6">
+      <c r="R62" s="6">
         <v>34354</v>
       </c>
-      <c r="M62" s="6">
+      <c r="S62" s="6">
         <v>33643</v>
       </c>
-      <c r="N62" s="6">
+      <c r="T62" s="6">
         <v>32810</v>
       </c>
-      <c r="O62" s="6">
+      <c r="U62" s="6">
         <v>31701</v>
       </c>
-      <c r="P62" s="6">
+      <c r="V62" s="6">
         <v>32280</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="W62" s="6">
         <v>32547</v>
       </c>
-      <c r="R62" s="6">
+      <c r="X62" s="6">
         <v>31557</v>
       </c>
-      <c r="S62" s="6">
+      <c r="Y62" s="6">
         <v>30326</v>
       </c>
-      <c r="T62" s="6">
+      <c r="Z62" s="6">
         <v>28972</v>
       </c>
-      <c r="U62" s="6">
+      <c r="AA62" s="6">
         <v>29892</v>
       </c>
-      <c r="V62" s="6">
+      <c r="AB62" s="6">
         <v>34571</v>
       </c>
-      <c r="W62" s="6">
+      <c r="AC62" s="6">
         <v>33942</v>
       </c>
-      <c r="X62" s="6">
+      <c r="AD62" s="6">
         <v>34209</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="AE62" s="6">
         <v>33738</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="AF62" s="6">
         <v>34833</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
+        <v>17527</v>
+      </c>
+      <c r="C63" s="5">
+        <v>22583</v>
+      </c>
+      <c r="D63" s="5">
+        <v>23272</v>
+      </c>
+      <c r="E63" s="5">
+        <v>23707</v>
+      </c>
+      <c r="F63" s="5">
+        <v>24269</v>
+      </c>
+      <c r="G63" s="5">
+        <v>25785</v>
+      </c>
+      <c r="H63" s="6">
         <v>15651</v>
       </c>
-      <c r="C63" s="6">
+      <c r="I63" s="6">
         <v>16645</v>
       </c>
-      <c r="D63" s="6">
+      <c r="J63" s="6">
         <v>17360</v>
       </c>
-      <c r="E63" s="6">
+      <c r="K63" s="6">
         <v>17856</v>
       </c>
-      <c r="F63" s="6">
+      <c r="L63" s="6">
         <v>18533</v>
       </c>
-      <c r="G63" s="6">
+      <c r="M63" s="6">
         <v>20308</v>
       </c>
-      <c r="H63" s="6">
+      <c r="N63" s="6">
         <v>23781</v>
       </c>
-      <c r="I63" s="6">
+      <c r="O63" s="6">
         <v>28213</v>
       </c>
-      <c r="J63" s="6">
+      <c r="P63" s="6">
         <v>31949</v>
       </c>
-      <c r="K63" s="6">
+      <c r="Q63" s="6">
         <v>42052</v>
       </c>
-      <c r="L63" s="6">
+      <c r="R63" s="6">
         <v>45073</v>
       </c>
-      <c r="M63" s="6">
+      <c r="S63" s="6">
         <v>46538</v>
       </c>
-      <c r="N63" s="6">
+      <c r="T63" s="6">
         <v>49418</v>
       </c>
-      <c r="O63" s="6">
+      <c r="U63" s="6">
         <v>48822</v>
       </c>
-      <c r="P63" s="6">
+      <c r="V63" s="6">
         <v>48432</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="W63" s="6">
         <v>49141</v>
       </c>
-      <c r="R63" s="6">
+      <c r="X63" s="6">
         <v>44771</v>
       </c>
-      <c r="S63" s="6">
+      <c r="Y63" s="6">
         <v>40801</v>
       </c>
-      <c r="T63" s="6">
+      <c r="Z63" s="6">
         <v>37922</v>
       </c>
-      <c r="U63" s="6">
+      <c r="AA63" s="6">
         <v>38127</v>
       </c>
-      <c r="V63" s="6">
+      <c r="AB63" s="6">
         <v>36635</v>
       </c>
-      <c r="W63" s="6">
+      <c r="AC63" s="6">
         <v>34728</v>
       </c>
-      <c r="X63" s="6">
+      <c r="AD63" s="6">
         <v>33968</v>
       </c>
-      <c r="Y63" s="6">
+      <c r="AE63" s="6">
         <v>34629</v>
       </c>
-      <c r="Z63" s="6">
+      <c r="AF63" s="6">
         <v>36931</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
+        <v>238</v>
+      </c>
+      <c r="C64" s="5">
+        <v>214</v>
+      </c>
+      <c r="D64" s="5">
+        <v>217</v>
+      </c>
+      <c r="E64" s="5">
+        <v>212</v>
+      </c>
+      <c r="F64" s="5">
+        <v>210</v>
+      </c>
+      <c r="G64" s="5">
+        <v>208</v>
+      </c>
+      <c r="H64" s="6">
         <v>216</v>
       </c>
-      <c r="C64" s="6">
+      <c r="I64" s="6">
         <v>306</v>
       </c>
-      <c r="D64" s="6">
+      <c r="J64" s="6">
         <v>306</v>
       </c>
-      <c r="E64" s="6">
+      <c r="K64" s="6">
         <v>306</v>
       </c>
-      <c r="F64" s="6">
+      <c r="L64" s="6">
         <v>266</v>
       </c>
-      <c r="G64" s="6">
+      <c r="M64" s="6">
         <v>266</v>
       </c>
-      <c r="H64" s="6">
+      <c r="N64" s="6">
         <v>266</v>
       </c>
-      <c r="I64" s="6">
+      <c r="O64" s="6">
         <v>280</v>
       </c>
-      <c r="J64" s="6">
+      <c r="P64" s="6">
         <v>296</v>
       </c>
-      <c r="K64" s="6">
+      <c r="Q64" s="6">
         <v>276</v>
       </c>
-      <c r="L64" s="6">
+      <c r="R64" s="6">
         <v>289</v>
       </c>
-      <c r="M64" s="6">
+      <c r="S64" s="6">
         <v>305</v>
       </c>
-      <c r="N64" s="6">
+      <c r="T64" s="6">
         <v>306</v>
       </c>
-      <c r="O64" s="6">
+      <c r="U64" s="6">
         <v>311</v>
       </c>
-      <c r="P64" s="6">
+      <c r="V64" s="6">
         <v>305</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="W64" s="6">
         <v>315</v>
       </c>
-      <c r="R64" s="6">
+      <c r="X64" s="6">
         <v>328</v>
       </c>
-      <c r="S64" s="6">
+      <c r="Y64" s="6">
         <v>317</v>
       </c>
-      <c r="T64" s="6">
+      <c r="Z64" s="6">
         <v>342</v>
       </c>
-      <c r="U64" s="6">
+      <c r="AA64" s="6">
         <v>364</v>
       </c>
-      <c r="V64" s="6">
+      <c r="AB64" s="6">
         <v>378</v>
       </c>
-      <c r="W64" s="6">
+      <c r="AC64" s="6">
         <v>375</v>
       </c>
-      <c r="X64" s="6">
+      <c r="AD64" s="6">
         <v>375</v>
       </c>
-      <c r="Y64" s="6">
+      <c r="AE64" s="6">
         <v>387</v>
       </c>
-      <c r="Z64" s="6">
+      <c r="AF64" s="6">
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
+        <v>58129</v>
+      </c>
+      <c r="C65" s="5">
+        <v>65233</v>
+      </c>
+      <c r="D65" s="5">
+        <v>66166</v>
+      </c>
+      <c r="E65" s="5">
+        <v>65501</v>
+      </c>
+      <c r="F65" s="5">
+        <v>65168</v>
+      </c>
+      <c r="G65" s="5">
+        <v>67676</v>
+      </c>
+      <c r="H65" s="6">
         <v>54052</v>
       </c>
-      <c r="C65" s="6">
+      <c r="I65" s="6">
         <v>52374</v>
       </c>
-      <c r="D65" s="6">
+      <c r="J65" s="6">
         <v>53962</v>
       </c>
-      <c r="E65" s="6">
+      <c r="K65" s="6">
         <v>54871</v>
       </c>
-      <c r="F65" s="6">
+      <c r="L65" s="6">
         <v>58189</v>
       </c>
-      <c r="G65" s="6">
+      <c r="M65" s="6">
         <v>57400</v>
       </c>
-      <c r="H65" s="6">
+      <c r="N65" s="6">
         <v>70783</v>
       </c>
-      <c r="I65" s="6">
+      <c r="O65" s="6">
         <v>75929</v>
       </c>
-      <c r="J65" s="6">
+      <c r="P65" s="6">
         <v>75163</v>
       </c>
-      <c r="K65" s="6">
+      <c r="Q65" s="6">
         <v>75398</v>
       </c>
-      <c r="L65" s="6">
+      <c r="R65" s="6">
         <v>78583</v>
       </c>
-      <c r="M65" s="6">
+      <c r="S65" s="6">
         <v>79727</v>
       </c>
-      <c r="N65" s="6">
+      <c r="T65" s="6">
         <v>81101</v>
       </c>
-      <c r="O65" s="6">
+      <c r="U65" s="6">
         <v>81403</v>
       </c>
-      <c r="P65" s="6">
+      <c r="V65" s="6">
         <v>89131</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="W65" s="6">
         <v>94675</v>
       </c>
-      <c r="R65" s="6">
+      <c r="X65" s="6">
         <v>96468</v>
       </c>
-      <c r="S65" s="6">
+      <c r="Y65" s="6">
         <v>98871</v>
       </c>
-      <c r="T65" s="6">
+      <c r="Z65" s="6">
         <v>103426</v>
       </c>
-      <c r="U65" s="6">
+      <c r="AA65" s="6">
         <v>110989</v>
       </c>
-      <c r="V65" s="6">
+      <c r="AB65" s="6">
         <v>114986</v>
       </c>
-      <c r="W65" s="6">
+      <c r="AC65" s="6">
         <v>116190</v>
       </c>
-      <c r="X65" s="6">
+      <c r="AD65" s="6">
         <v>121500</v>
       </c>
-      <c r="Y65" s="6">
+      <c r="AE65" s="6">
         <v>125860</v>
       </c>
-      <c r="Z65" s="6">
+      <c r="AF65" s="6">
         <v>130788</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="6" t="s">
         <v>29</v>
       </c>
@@ -5771,29 +6558,35 @@
       <c r="Z66" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF66" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="6" t="s">
         <v>29</v>
       </c>
@@ -5851,299 +6644,341 @@
       <c r="Z67" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF67" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6">
         <v>366401</v>
       </c>
-      <c r="C68" s="6">
+      <c r="I68" s="6">
         <v>355833</v>
       </c>
-      <c r="D68" s="6">
+      <c r="J68" s="6">
         <v>350754</v>
       </c>
-      <c r="E68" s="6">
+      <c r="K68" s="6">
         <v>347196</v>
       </c>
-      <c r="F68" s="6">
+      <c r="L68" s="6">
         <v>358225</v>
       </c>
-      <c r="G68" s="6">
+      <c r="M68" s="6">
         <v>344002</v>
       </c>
-      <c r="H68" s="6">
+      <c r="N68" s="6">
         <v>379552</v>
       </c>
-      <c r="I68" s="6">
+      <c r="O68" s="6">
         <v>386470</v>
       </c>
-      <c r="J68" s="6">
+      <c r="P68" s="6">
         <v>385669</v>
       </c>
-      <c r="K68" s="6">
+      <c r="Q68" s="6">
         <v>400433</v>
       </c>
-      <c r="L68" s="6">
+      <c r="R68" s="6">
         <v>401011</v>
       </c>
-      <c r="M68" s="6">
+      <c r="S68" s="6">
         <v>403964</v>
       </c>
-      <c r="N68" s="6">
+      <c r="T68" s="6">
         <v>401489</v>
       </c>
-      <c r="O68" s="6">
+      <c r="U68" s="6">
         <v>407721</v>
       </c>
-      <c r="P68" s="6">
+      <c r="V68" s="6">
         <v>428477</v>
       </c>
-      <c r="Q68" s="6">
+      <c r="W68" s="6">
         <v>422374</v>
       </c>
-      <c r="R68" s="6">
+      <c r="X68" s="6">
         <v>409409</v>
       </c>
-      <c r="S68" s="6">
+      <c r="Y68" s="6">
         <v>405572</v>
       </c>
-      <c r="T68" s="6">
+      <c r="Z68" s="6">
         <v>402335</v>
       </c>
-      <c r="U68" s="6">
+      <c r="AA68" s="6">
         <v>405463</v>
       </c>
-      <c r="V68" s="6">
+      <c r="AB68" s="6">
         <v>397082</v>
       </c>
-      <c r="W68" s="6">
+      <c r="AC68" s="6">
         <v>385764</v>
       </c>
-      <c r="X68" s="6">
+      <c r="AD68" s="6">
         <v>386763</v>
       </c>
-      <c r="Y68" s="6">
+      <c r="AE68" s="6">
         <v>384181</v>
       </c>
-      <c r="Z68" s="6">
+      <c r="AF68" s="6">
         <v>392778</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="14"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="16"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
+        <v>115385</v>
+      </c>
+      <c r="C70" s="5">
+        <v>116045</v>
+      </c>
+      <c r="D70" s="5">
+        <v>115703</v>
+      </c>
+      <c r="E70" s="5">
+        <v>115221</v>
+      </c>
+      <c r="F70" s="5">
+        <v>114718</v>
+      </c>
+      <c r="G70" s="5">
+        <v>114181</v>
+      </c>
+      <c r="H70" s="6">
         <v>251831</v>
       </c>
-      <c r="C70" s="6">
+      <c r="I70" s="6">
         <v>251831</v>
       </c>
-      <c r="D70" s="6">
+      <c r="J70" s="6">
         <v>251831</v>
       </c>
-      <c r="E70" s="6">
+      <c r="K70" s="6">
         <v>251824</v>
       </c>
-      <c r="F70" s="6">
+      <c r="L70" s="6">
         <v>251799</v>
       </c>
-      <c r="G70" s="6">
+      <c r="M70" s="6">
         <v>257260</v>
       </c>
-      <c r="H70" s="6">
+      <c r="N70" s="6">
         <v>312758</v>
       </c>
-      <c r="I70" s="6">
+      <c r="O70" s="6">
         <v>291167</v>
       </c>
-      <c r="J70" s="6">
+      <c r="P70" s="6">
         <v>291144</v>
       </c>
-      <c r="K70" s="6">
+      <c r="Q70" s="6">
         <v>274050</v>
       </c>
-      <c r="L70" s="6">
+      <c r="R70" s="6">
         <v>274053</v>
       </c>
-      <c r="M70" s="6">
+      <c r="S70" s="6">
         <v>274054</v>
       </c>
-      <c r="N70" s="6">
+      <c r="T70" s="6">
         <v>266220</v>
       </c>
-      <c r="O70" s="6">
+      <c r="U70" s="6">
         <v>266223</v>
       </c>
-      <c r="P70" s="6">
+      <c r="V70" s="6">
         <v>266231</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="W70" s="6">
         <v>255396</v>
       </c>
-      <c r="R70" s="6">
+      <c r="X70" s="6">
         <v>260676</v>
       </c>
-      <c r="S70" s="6">
+      <c r="Y70" s="6">
         <v>264212</v>
       </c>
-      <c r="T70" s="6">
+      <c r="Z70" s="6">
         <v>265474</v>
       </c>
-      <c r="U70" s="6">
+      <c r="AA70" s="6">
         <v>256475</v>
       </c>
-      <c r="V70" s="6">
+      <c r="AB70" s="6">
         <v>242062</v>
       </c>
-      <c r="W70" s="6">
+      <c r="AC70" s="6">
         <v>234691</v>
       </c>
-      <c r="X70" s="6">
+      <c r="AD70" s="6">
         <v>232743</v>
       </c>
-      <c r="Y70" s="6">
+      <c r="AE70" s="6">
         <v>225673</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="AF70" s="6">
         <v>222369</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6">
         <v>97</v>
       </c>
-      <c r="C71" s="6">
+      <c r="I71" s="6">
         <v>97</v>
       </c>
-      <c r="D71" s="6">
+      <c r="J71" s="6">
         <v>97</v>
       </c>
-      <c r="E71" s="6">
+      <c r="K71" s="6">
         <v>56</v>
       </c>
-      <c r="F71" s="6">
+      <c r="L71" s="6">
         <v>55</v>
       </c>
-      <c r="G71" s="6">
+      <c r="M71" s="6">
         <v>47</v>
       </c>
-      <c r="H71" s="6">
+      <c r="N71" s="6">
         <v>54</v>
       </c>
-      <c r="I71" s="6">
+      <c r="O71" s="6">
         <v>52</v>
       </c>
-      <c r="J71" s="6">
+      <c r="P71" s="6">
         <v>49</v>
       </c>
-      <c r="K71" s="6">
+      <c r="Q71" s="6">
         <v>49</v>
       </c>
-      <c r="L71" s="6">
+      <c r="R71" s="6">
         <v>47</v>
       </c>
-      <c r="M71" s="6">
+      <c r="S71" s="6">
         <v>36</v>
       </c>
-      <c r="N71" s="6">
+      <c r="T71" s="6">
         <v>35</v>
       </c>
-      <c r="O71" s="6">
+      <c r="U71" s="6">
         <v>32</v>
       </c>
-      <c r="P71" s="6">
+      <c r="V71" s="6">
         <v>33</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="W71" s="6">
         <v>41</v>
       </c>
-      <c r="R71" s="6">
+      <c r="X71" s="6">
         <v>41</v>
       </c>
-      <c r="S71" s="6">
+      <c r="Y71" s="6">
         <v>41</v>
       </c>
-      <c r="T71" s="6">
+      <c r="Z71" s="6">
         <v>42</v>
       </c>
-      <c r="U71" s="6">
+      <c r="AA71" s="6">
         <v>40</v>
       </c>
-      <c r="V71" s="6">
+      <c r="AB71" s="6">
         <v>42</v>
       </c>
-      <c r="W71" s="6">
+      <c r="AC71" s="6">
         <v>43</v>
       </c>
-      <c r="X71" s="6">
+      <c r="AD71" s="6">
         <v>77</v>
       </c>
-      <c r="Y71" s="6">
+      <c r="AE71" s="6">
         <v>70</v>
       </c>
-      <c r="Z71" s="6">
+      <c r="AF71" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
         <v>29</v>
       </c>
@@ -6201,29 +7036,35 @@
       <c r="Z72" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="6" t="s">
         <v>29</v>
       </c>
@@ -6281,29 +7122,35 @@
       <c r="Z73" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
       <c r="H74" s="6" t="s">
         <v>29</v>
       </c>
@@ -6361,109 +7208,133 @@
       <c r="Z74" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
+        <v>12075</v>
+      </c>
+      <c r="C75" s="5">
+        <v>12343</v>
+      </c>
+      <c r="D75" s="5">
+        <v>12018</v>
+      </c>
+      <c r="E75" s="5">
+        <v>11312</v>
+      </c>
+      <c r="F75" s="5">
+        <v>11592</v>
+      </c>
+      <c r="G75" s="5">
+        <v>11358</v>
+      </c>
+      <c r="H75" s="6">
         <v>13794</v>
       </c>
-      <c r="C75" s="6">
+      <c r="I75" s="6">
         <v>16161</v>
       </c>
-      <c r="D75" s="6">
+      <c r="J75" s="6">
         <v>14445</v>
       </c>
-      <c r="E75" s="6">
+      <c r="K75" s="6">
         <v>14610</v>
       </c>
-      <c r="F75" s="6">
+      <c r="L75" s="6">
         <v>17997</v>
       </c>
-      <c r="G75" s="6">
+      <c r="M75" s="6">
         <v>17652</v>
       </c>
-      <c r="H75" s="6">
+      <c r="N75" s="6">
         <v>17506</v>
       </c>
-      <c r="I75" s="6">
+      <c r="O75" s="6">
         <v>17511</v>
       </c>
-      <c r="J75" s="6">
+      <c r="P75" s="6">
         <v>18435</v>
       </c>
-      <c r="K75" s="6">
+      <c r="Q75" s="6">
         <v>17926</v>
       </c>
-      <c r="L75" s="6">
+      <c r="R75" s="6">
         <v>17885</v>
       </c>
-      <c r="M75" s="6">
+      <c r="S75" s="6">
         <v>18008</v>
       </c>
-      <c r="N75" s="6">
+      <c r="T75" s="6">
         <v>17867</v>
       </c>
-      <c r="O75" s="6">
+      <c r="U75" s="6">
         <v>18030</v>
       </c>
-      <c r="P75" s="6">
+      <c r="V75" s="6">
         <v>18206</v>
       </c>
-      <c r="Q75" s="6">
+      <c r="W75" s="6">
         <v>17719</v>
       </c>
-      <c r="R75" s="6">
+      <c r="X75" s="6">
         <v>17620</v>
       </c>
-      <c r="S75" s="6">
+      <c r="Y75" s="6">
         <v>17469</v>
       </c>
-      <c r="T75" s="6">
+      <c r="Z75" s="6">
         <v>17030</v>
       </c>
-      <c r="U75" s="6">
+      <c r="AA75" s="6">
         <v>17061</v>
       </c>
-      <c r="V75" s="6">
+      <c r="AB75" s="6">
         <v>16998</v>
       </c>
-      <c r="W75" s="6">
+      <c r="AC75" s="6">
         <v>16930</v>
       </c>
-      <c r="X75" s="6">
+      <c r="AD75" s="6">
         <v>16732</v>
       </c>
-      <c r="Y75" s="6">
+      <c r="AE75" s="6">
         <v>16645</v>
       </c>
-      <c r="Z75" s="6">
+      <c r="AF75" s="6">
         <v>16518</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
       <c r="H76" s="6" t="s">
         <v>29</v>
       </c>
@@ -6521,244 +7392,292 @@
       <c r="Z76" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF76" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
+        <v>1833</v>
+      </c>
+      <c r="C77" s="5">
+        <v>3010</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1614</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2733</v>
+      </c>
+      <c r="F77" s="5">
+        <v>4663</v>
+      </c>
+      <c r="G77" s="5">
+        <v>5666</v>
+      </c>
+      <c r="H77" s="6">
         <v>8427</v>
       </c>
-      <c r="C77" s="6">
+      <c r="I77" s="6">
         <v>1763</v>
       </c>
-      <c r="D77" s="6">
+      <c r="J77" s="6">
         <v>6838</v>
       </c>
-      <c r="E77" s="6">
+      <c r="K77" s="6">
         <v>4284</v>
       </c>
-      <c r="F77" s="6">
+      <c r="L77" s="6">
         <v>2152</v>
       </c>
-      <c r="G77" s="6">
+      <c r="M77" s="6">
         <v>6834</v>
       </c>
-      <c r="H77" s="6">
+      <c r="N77" s="6">
         <v>6116</v>
       </c>
-      <c r="I77" s="6">
+      <c r="O77" s="6">
         <v>1645</v>
       </c>
-      <c r="J77" s="6">
+      <c r="P77" s="6">
         <v>3473</v>
       </c>
-      <c r="K77" s="6">
+      <c r="Q77" s="6">
         <v>3716</v>
       </c>
-      <c r="L77" s="6">
+      <c r="R77" s="6">
         <v>1489</v>
       </c>
-      <c r="M77" s="6">
+      <c r="S77" s="6">
         <v>16933</v>
       </c>
-      <c r="N77" s="6">
+      <c r="T77" s="6">
         <v>1463</v>
       </c>
-      <c r="O77" s="6">
+      <c r="U77" s="6">
         <v>3770</v>
       </c>
-      <c r="P77" s="6">
+      <c r="V77" s="6">
         <v>3786</v>
       </c>
-      <c r="Q77" s="6">
+      <c r="W77" s="6">
         <v>8900</v>
       </c>
-      <c r="R77" s="6">
+      <c r="X77" s="6">
         <v>14184</v>
       </c>
-      <c r="S77" s="6">
+      <c r="Y77" s="6">
         <v>15389</v>
       </c>
-      <c r="T77" s="6">
+      <c r="Z77" s="6">
         <v>27949</v>
       </c>
-      <c r="U77" s="6">
+      <c r="AA77" s="6">
         <v>38985</v>
       </c>
-      <c r="V77" s="6">
+      <c r="AB77" s="6">
         <v>38827</v>
       </c>
-      <c r="W77" s="6">
+      <c r="AC77" s="6">
         <v>45574</v>
       </c>
-      <c r="X77" s="6">
+      <c r="AD77" s="6">
         <v>26972</v>
       </c>
-      <c r="Y77" s="6">
+      <c r="AE77" s="6">
         <v>44155</v>
       </c>
-      <c r="Z77" s="6">
+      <c r="AF77" s="6">
         <v>39189</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6">
         <v>274148</v>
       </c>
-      <c r="C78" s="6">
+      <c r="I78" s="6">
         <v>269851</v>
       </c>
-      <c r="D78" s="6">
+      <c r="J78" s="6">
         <v>273210</v>
       </c>
-      <c r="E78" s="6">
+      <c r="K78" s="6">
         <v>270773</v>
       </c>
-      <c r="F78" s="6">
+      <c r="L78" s="6">
         <v>272003</v>
       </c>
-      <c r="G78" s="6">
+      <c r="M78" s="6">
         <v>281793</v>
       </c>
-      <c r="H78" s="6">
+      <c r="N78" s="6">
         <v>336434</v>
       </c>
-      <c r="I78" s="6">
+      <c r="O78" s="6">
         <v>310375</v>
       </c>
-      <c r="J78" s="6">
+      <c r="P78" s="6">
         <v>313102</v>
       </c>
-      <c r="K78" s="6">
+      <c r="Q78" s="6">
         <v>295740</v>
       </c>
-      <c r="L78" s="6">
+      <c r="R78" s="6">
         <v>293474</v>
       </c>
-      <c r="M78" s="6">
+      <c r="S78" s="6">
         <v>309031</v>
       </c>
-      <c r="N78" s="6">
+      <c r="T78" s="6">
         <v>285586</v>
       </c>
-      <c r="O78" s="6">
+      <c r="U78" s="6">
         <v>288054</v>
       </c>
-      <c r="P78" s="6">
+      <c r="V78" s="6">
         <v>288257</v>
       </c>
-      <c r="Q78" s="6">
+      <c r="W78" s="6">
         <v>282056</v>
       </c>
-      <c r="R78" s="6">
+      <c r="X78" s="6">
         <v>292521</v>
       </c>
-      <c r="S78" s="6">
+      <c r="Y78" s="6">
         <v>297111</v>
       </c>
-      <c r="T78" s="6">
+      <c r="Z78" s="6">
         <v>310495</v>
       </c>
-      <c r="U78" s="6">
+      <c r="AA78" s="6">
         <v>312561</v>
       </c>
-      <c r="V78" s="6">
+      <c r="AB78" s="6">
         <v>297929</v>
       </c>
-      <c r="W78" s="6">
+      <c r="AC78" s="6">
         <v>297238</v>
       </c>
-      <c r="X78" s="6">
+      <c r="AD78" s="6">
         <v>276524</v>
       </c>
-      <c r="Y78" s="6">
+      <c r="AE78" s="6">
         <v>286543</v>
       </c>
-      <c r="Z78" s="6">
+      <c r="AF78" s="6">
         <v>278147</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="6">
         <v>2156735</v>
       </c>
-      <c r="C79" s="6">
+      <c r="I79" s="6">
         <v>2144179</v>
       </c>
-      <c r="D79" s="6">
+      <c r="J79" s="6">
         <v>2133401</v>
       </c>
-      <c r="E79" s="6">
+      <c r="K79" s="6">
         <v>2124409</v>
       </c>
-      <c r="F79" s="6">
+      <c r="L79" s="6">
         <v>2288492</v>
       </c>
-      <c r="G79" s="6">
+      <c r="M79" s="6">
         <v>2283446</v>
       </c>
-      <c r="H79" s="6">
+      <c r="N79" s="6">
         <v>2481739</v>
       </c>
-      <c r="I79" s="6">
+      <c r="O79" s="6">
         <v>2516843</v>
       </c>
-      <c r="J79" s="6">
+      <c r="P79" s="6">
         <v>2572429</v>
       </c>
-      <c r="K79" s="6">
+      <c r="Q79" s="6">
         <v>2657948</v>
       </c>
-      <c r="L79" s="6">
+      <c r="R79" s="6">
         <v>2823432</v>
       </c>
-      <c r="M79" s="6">
+      <c r="S79" s="6">
         <v>2887845</v>
       </c>
-      <c r="N79" s="6">
+      <c r="T79" s="6">
         <v>2962492</v>
       </c>
-      <c r="O79" s="6">
+      <c r="U79" s="6">
         <v>2995184</v>
       </c>
-      <c r="P79" s="6">
+      <c r="V79" s="6">
         <v>3308657</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="W79" s="6">
         <v>3442315</v>
       </c>
-      <c r="R79" s="6">
+      <c r="X79" s="6">
         <v>3588404</v>
       </c>
-      <c r="S79" s="6">
+      <c r="Y79" s="6">
         <v>3667817</v>
       </c>
-      <c r="T79" s="6">
+      <c r="Z79" s="6">
         <v>3852794</v>
       </c>
-      <c r="U79" s="6">
+      <c r="AA79" s="6">
         <v>3912358</v>
       </c>
-      <c r="V79" s="6">
+      <c r="AB79" s="6">
         <v>3990867</v>
       </c>
-      <c r="W79" s="6">
+      <c r="AC79" s="6">
         <v>4034542</v>
       </c>
-      <c r="X79" s="6">
+      <c r="AD79" s="6">
         <v>4081596</v>
       </c>
-      <c r="Y79" s="6">
+      <c r="AE79" s="6">
         <v>4123599</v>
       </c>
-      <c r="Z79" s="6">
+      <c r="AF79" s="6">
         <v>4303870</v>
       </c>
     </row>
@@ -6806,15 +7725,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="A69:Z69"/>
+  <mergeCells count="2">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A29:Z29"/>
-    <mergeCell ref="A35:Z35"/>
-    <mergeCell ref="A50:Z50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
